--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/INS/ins.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/INS/ins.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\INS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\INS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7817F08-B91C-4C42-A0F4-8A1FB21D72B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612C15E6-3E89-4127-A2C7-DA90CDB8CDC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="878" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="878" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INS Fact Sheet Backup" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="197">
   <si>
     <t>Date</t>
   </si>
@@ -313,9 +313,6 @@
     <t>RNG</t>
   </si>
   <si>
-    <t>RingCentral Inc</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -415,12 +412,6 @@
     <t>OKTA</t>
   </si>
   <si>
-    <t>92826C839</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>57636Q104</t>
   </si>
   <si>
@@ -514,15 +505,6 @@
     <t>Adobe Inc.</t>
   </si>
   <si>
-    <t>848637104</t>
-  </si>
-  <si>
-    <t>SPLK</t>
-  </si>
-  <si>
-    <t>Splunk Inc.</t>
-  </si>
-  <si>
     <t>M98068105</t>
   </si>
   <si>
@@ -571,27 +553,9 @@
     <t>Mastercard Inc</t>
   </si>
   <si>
-    <t>$193.9B</t>
-  </si>
-  <si>
-    <t>Visa Inc</t>
-  </si>
-  <si>
-    <t>$41.9B</t>
-  </si>
-  <si>
-    <t>Peloton Interactive Inc</t>
-  </si>
-  <si>
     <t>Square Inc</t>
   </si>
   <si>
-    <t>As of Date: 12/31/2020</t>
-  </si>
-  <si>
-    <t>Netflix Inc.</t>
-  </si>
-  <si>
     <t>05988J103</t>
   </si>
   <si>
@@ -628,15 +592,6 @@
     <t>Zoom Video Communications Inc.</t>
   </si>
   <si>
-    <t>H17182108</t>
-  </si>
-  <si>
-    <t>CRSP</t>
-  </si>
-  <si>
-    <t>CRISPR Therapeutics A.G.</t>
-  </si>
-  <si>
     <t>MONEY MARKET FUNDS</t>
   </si>
   <si>
@@ -647,6 +602,48 @@
   </si>
   <si>
     <t>TOTAL - MONEY MARKET FUNDS</t>
+  </si>
+  <si>
+    <t>2021 YTD</t>
+  </si>
+  <si>
+    <t>Facebook Inc</t>
+  </si>
+  <si>
+    <t>$263.5B</t>
+  </si>
+  <si>
+    <t>$42B</t>
+  </si>
+  <si>
+    <t>Alphabet Inc</t>
+  </si>
+  <si>
+    <t>Netflix Inc</t>
+  </si>
+  <si>
+    <t>As of Date: 3/31/2021</t>
+  </si>
+  <si>
+    <t>30303M102</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>02079K107</t>
+  </si>
+  <si>
+    <t>GOOG</t>
+  </si>
+  <si>
+    <t>#N/A Field Not Applicable</t>
+  </si>
+  <si>
+    <t>RingCentral Inc.</t>
+  </si>
+  <si>
+    <t>Peloton Interactive Inc.</t>
   </si>
 </sst>
 </file>
@@ -891,7 +888,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,6 +941,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1331,7 +1340,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1735,17 +1744,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="31" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="31" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="168" fontId="32" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="32" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" readingOrder="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2058,6 +2075,189 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{438CF571-15CF-4497-B93F-ACCFBBA296E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6621780" y="0"/>
+          <a:ext cx="480060" cy="478155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D42B8E7-BAE1-4499-AFB2-27F215DA734E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6621780" y="0"/>
+          <a:ext cx="480060" cy="478155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD7E2DD-4C99-4D8D-8AF6-2990C141DCE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6621780" y="0"/>
+          <a:ext cx="480060" cy="478155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>485775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C919CB20-DB4C-4BAF-B13B-1E4FC29E3BE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,37 +2600,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T118"/>
+  <dimension ref="A1:T121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="132" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" style="98" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" style="134" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="133" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" style="98" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.44140625" style="98" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="95"/>
+    <col min="1" max="1" width="10.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" style="98" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="134" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="133" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="98" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="95"/>
     <col min="9" max="9" width="19" style="95" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" style="95" customWidth="1"/>
-    <col min="11" max="13" width="11.6640625" style="98" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" style="95" customWidth="1"/>
+    <col min="11" max="13" width="11.7109375" style="98" customWidth="1"/>
     <col min="14" max="14" width="13" style="98" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" style="95" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.33203125" style="95" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" style="95" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.33203125" style="95" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" style="95" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="95" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="95"/>
+    <col min="15" max="15" width="7.140625" style="95" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" style="95" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" style="95" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.28515625" style="95" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" style="95" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" style="95" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2456,15 +2656,15 @@
         <v>3</v>
       </c>
       <c r="J1" s="97">
-        <v>44196</v>
-      </c>
-      <c r="Q1" s="139" t="s">
+        <v>44286</v>
+      </c>
+      <c r="Q1" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="140"/>
-      <c r="S1" s="141"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R1" s="142"/>
+      <c r="S1" s="143"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>40753</v>
       </c>
@@ -2481,21 +2681,21 @@
       <c r="I2" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="136">
-        <v>7.2300000000000001E-4</v>
-      </c>
-      <c r="K2" s="151"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="152"/>
+      <c r="J2" s="135">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="K2" s="153"/>
+      <c r="L2" s="154"/>
+      <c r="M2" s="154"/>
+      <c r="N2" s="154"/>
       <c r="O2" s="23"/>
-      <c r="Q2" s="142" t="s">
+      <c r="Q2" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="R2" s="143"/>
-      <c r="S2" s="144"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R2" s="145"/>
+      <c r="S2" s="146"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>40786</v>
       </c>
@@ -2525,8 +2725,8 @@
         <v>5</v>
       </c>
       <c r="J3" s="103">
-        <f>(COUNTA(C3:C611))+K3</f>
-        <v>113.09677419354838</v>
+        <f>(COUNTA(C3:C614))+K3</f>
+        <v>116.09677419354838</v>
       </c>
       <c r="K3" s="24">
         <f>3/31</f>
@@ -2536,13 +2736,13 @@
         <v>39</v>
       </c>
       <c r="M3" s="25"/>
-      <c r="Q3" s="145" t="s">
+      <c r="Q3" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="146"/>
-      <c r="S3" s="147"/>
-    </row>
-    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R3" s="148"/>
+      <c r="S3" s="149"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22">
         <v>40816</v>
       </c>
@@ -2568,13 +2768,13 @@
         <f>(E4-(MAX($E$2:E4)))/(MAX($E$2:E4))</f>
         <v>-0.12080161014170698</v>
       </c>
-      <c r="Q4" s="148" t="s">
+      <c r="Q4" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="149"/>
-      <c r="S4" s="150"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R4" s="151"/>
+      <c r="S4" s="152"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>40847</v>
       </c>
@@ -2611,7 +2811,7 @@
       </c>
       <c r="N5" s="95"/>
     </row>
-    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <v>40877</v>
       </c>
@@ -2642,15 +2842,15 @@
       </c>
       <c r="J6" s="29">
         <f>S26</f>
-        <v>1.6899</v>
+        <v>1.5018</v>
       </c>
       <c r="K6" s="29">
         <f>T26</f>
-        <v>2.5332729226622019</v>
+        <v>2.7514480346799792</v>
       </c>
       <c r="N6" s="95"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>40908</v>
       </c>
@@ -2677,11 +2877,11 @@
         <v>-1.6911952205748457E-2</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J7" s="30">
         <f>((J14-J2)-J8*(K14-J2))*100</f>
-        <v>-3.4163229738656931</v>
+        <v>-4.5102924465962522</v>
       </c>
       <c r="K7" s="31" t="s">
         <v>71</v>
@@ -2689,16 +2889,16 @@
       <c r="N7" s="95"/>
       <c r="Q7" s="104"/>
       <c r="R7" s="105"/>
-      <c r="S7" s="161" t="str">
+      <c r="S7" s="163" t="str">
         <f>B1</f>
         <v>INSAX</v>
       </c>
-      <c r="T7" s="159" t="str">
+      <c r="T7" s="161" t="str">
         <f>E1</f>
         <v>SP500TR</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <v>40939</v>
       </c>
@@ -2725,11 +2925,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J8" s="32">
-        <f>COVAR(C3:C115,F3:F115)/VAR(F3:F115)</f>
-        <v>1.0108966971932756</v>
+        <f>COVAR(C3:C118,F3:F118)/VAR(F3:F118)</f>
+        <v>0.98691979928105267</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>71</v>
@@ -2737,10 +2937,10 @@
       <c r="N8" s="95"/>
       <c r="Q8" s="106"/>
       <c r="R8" s="107"/>
-      <c r="S8" s="162"/>
-      <c r="T8" s="160"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S8" s="164"/>
+      <c r="T8" s="162"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <v>40968</v>
       </c>
@@ -2767,11 +2967,11 @@
         <v>0</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J9" s="33">
-        <f>RSQ(C3:C115,F3:F115)</f>
-        <v>0.79581852495666117</v>
+        <f>RSQ(C3:C118,F3:F118)</f>
+        <v>0.74543222823942878</v>
       </c>
       <c r="K9" s="33" t="s">
         <v>71</v>
@@ -2781,18 +2981,18 @@
         <v>7</v>
       </c>
       <c r="R9" s="109">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="S9" s="110">
-        <f t="shared" ref="S9:S15" si="2">SUMIF($A$2:$A$218,$R9,$B$2:$B$218)</f>
-        <v>23520</v>
+        <f t="shared" ref="S9:S15" si="2">SUMIF($A$2:$A$221,$R9,$B$2:$B$221)</f>
+        <v>26899</v>
       </c>
       <c r="T9" s="111">
-        <f t="shared" ref="T9:T15" si="3">SUMIF($A$2:$A$218,$R9,$E$2:$E$218)</f>
-        <v>29842.127791337327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <f t="shared" ref="T9:T15" si="3">SUMIF($A$2:$A$221,$R9,$E$2:$E$221)</f>
+        <v>35332.729226622017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>40999</v>
       </c>
@@ -2819,15 +3019,15 @@
         <v>0</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J10" s="32">
         <f>(J14-$J$2)/J11</f>
-        <v>0.69578892346252175</v>
+        <v>0.62783175769390054</v>
       </c>
       <c r="K10" s="34">
         <f>(K14-$J$2)/K11</f>
-        <v>1.0313701338572061</v>
+        <v>1.0668467032572257</v>
       </c>
       <c r="N10" s="95"/>
       <c r="Q10" s="108" t="s">
@@ -2835,18 +3035,18 @@
       </c>
       <c r="R10" s="112">
         <f>EOMONTH($J$1,-12)</f>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="S10" s="110">
         <f t="shared" si="2"/>
-        <v>23520</v>
+        <v>18377</v>
       </c>
       <c r="T10" s="111">
         <f t="shared" si="3"/>
-        <v>29842.127791337327</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>23993.661433099005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>41029</v>
       </c>
@@ -2873,15 +3073,15 @@
         <v>-6.2739902989710572E-3</v>
       </c>
       <c r="I11" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J11" s="29">
-        <f>STDEV(C2:C115)*SQRT(12)</f>
-        <v>0.15806040502787072</v>
+        <f>STDEV(C2:C118)*SQRT(12)</f>
+        <v>0.15807489625389604</v>
       </c>
       <c r="K11" s="36">
-        <f>STDEV(F2:F115)*SQRT(12)</f>
-        <v>0.13824929147660311</v>
+        <f>STDEV(F2:F118)*SQRT(12)</f>
+        <v>0.13709606115749767</v>
       </c>
       <c r="N11" s="95"/>
       <c r="Q11" s="108" t="s">
@@ -2889,18 +3089,18 @@
       </c>
       <c r="R11" s="112">
         <f>EOMONTH($J$1,-24)</f>
-        <v>43465</v>
+        <v>43555</v>
       </c>
       <c r="S11" s="110">
         <f t="shared" si="2"/>
-        <v>18981.150000000001</v>
+        <v>22405.88</v>
       </c>
       <c r="T11" s="111">
         <f t="shared" si="3"/>
-        <v>22695.985574296054</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>25793.50479035376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>41060</v>
       </c>
@@ -2927,15 +3127,15 @@
         <v>-6.5998263853176253E-2</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="37">
         <f>J15/$J$3</f>
-        <v>0.61009697661152307</v>
+        <v>0.6029452625729369</v>
       </c>
       <c r="K12" s="38">
         <f>K15/$J$3</f>
-        <v>0.71620079863091846</v>
+        <v>0.71492081133648233</v>
       </c>
       <c r="N12" s="95"/>
       <c r="Q12" s="108" t="s">
@@ -2943,18 +3143,18 @@
       </c>
       <c r="R12" s="112">
         <f>EOMONTH(J1,-36)</f>
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="S12" s="110">
         <f t="shared" si="2"/>
-        <v>19550</v>
+        <v>20966.330000000002</v>
       </c>
       <c r="T12" s="111">
         <f t="shared" si="3"/>
-        <v>23736.658045244283</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>23556.473352519064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>41090</v>
       </c>
@@ -2981,14 +3181,14 @@
         <v>-2.7515047291487536E-2</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J13" s="39">
-        <f>MIN(D2:D159)</f>
+        <f>MIN(D2:D162)</f>
         <v>-0.25190311418685118</v>
       </c>
       <c r="K13" s="40">
-        <f>MIN(G2:G218)</f>
+        <f>MIN(G2:G221)</f>
         <v>-0.19598020620821932</v>
       </c>
       <c r="N13" s="95"/>
@@ -2997,18 +3197,18 @@
       </c>
       <c r="R13" s="112">
         <f>EOMONTH(J1,-60)</f>
-        <v>42369</v>
+        <v>42460</v>
       </c>
       <c r="S13" s="110">
         <f t="shared" si="2"/>
-        <v>16078.83</v>
+        <v>15486.76</v>
       </c>
       <c r="T13" s="111">
         <f t="shared" si="3"/>
-        <v>17401.91614148848</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>17636.470438235414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>41121</v>
       </c>
@@ -3039,11 +3239,11 @@
       </c>
       <c r="J14" s="113">
         <f>S27</f>
-        <v>0.11069967905639233</v>
+        <v>9.9421439962364522E-2</v>
       </c>
       <c r="K14" s="113">
         <f>T27</f>
-        <v>0.14330919025588806</v>
+        <v>0.14643748087542741</v>
       </c>
       <c r="N14" s="95"/>
       <c r="Q14" s="108" t="s">
@@ -3062,7 +3262,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22">
         <v>41152</v>
       </c>
@@ -3091,13 +3291,13 @@
       <c r="I15" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="135">
-        <f>COUNTIF(C2:C159,"&gt;0")</f>
-        <v>69</v>
-      </c>
-      <c r="K15" s="135">
-        <f>COUNTIF(F2:F159,"&gt;0")</f>
-        <v>81</v>
+      <c r="J15" s="138">
+        <f>COUNTIF(C2:C162,"&gt;0")</f>
+        <v>70</v>
+      </c>
+      <c r="K15" s="138">
+        <f>COUNTIF(F2:F162,"&gt;0")</f>
+        <v>83</v>
       </c>
       <c r="N15" s="95"/>
       <c r="Q15" s="114" t="s">
@@ -3105,18 +3305,18 @@
       </c>
       <c r="R15" s="115">
         <f>J1</f>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="S15" s="116">
         <f t="shared" si="2"/>
-        <v>26899</v>
+        <v>25018</v>
       </c>
       <c r="T15" s="117">
         <f t="shared" si="3"/>
-        <v>35332.729226622017</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>37514.480346799792</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>41182</v>
       </c>
@@ -3143,7 +3343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>41213</v>
       </c>
@@ -3169,10 +3369,10 @@
         <f>(E17-(MAX($E$2:E17)))/(MAX($E$2:E17))</f>
         <v>-1.8465112393741948E-2</v>
       </c>
-      <c r="Q17" s="163" t="s">
+      <c r="Q17" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="R17" s="164"/>
+      <c r="R17" s="166"/>
       <c r="S17" s="42" t="str">
         <f>S7</f>
         <v>INSAX</v>
@@ -3182,7 +3382,7 @@
         <v>SP500TR</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>41243</v>
       </c>
@@ -3229,21 +3429,21 @@
       <c r="N18" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="Q18" s="153" t="str">
+      <c r="Q18" s="155" t="str">
         <f>Q9</f>
         <v>YTD</v>
       </c>
-      <c r="R18" s="154"/>
+      <c r="R18" s="156"/>
       <c r="S18" s="113">
         <f>($S$15-S9)/S9</f>
-        <v>0.14366496598639455</v>
+        <v>-6.9928250120822336E-2</v>
       </c>
       <c r="T18" s="118">
         <f>($T$15-T9)/T9</f>
-        <v>0.18398826898926829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+        <v>6.1748728952811791E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>41274</v>
       </c>
@@ -3273,38 +3473,38 @@
         <v>15</v>
       </c>
       <c r="J19" s="48">
-        <v>14.36</v>
+        <v>-6.99</v>
       </c>
       <c r="K19" s="48">
-        <v>14.36</v>
+        <v>36.130000000000003</v>
       </c>
       <c r="L19" s="47">
         <f>S23*100</f>
-        <v>11.223474472541861</v>
+        <v>6.0661301253508437</v>
       </c>
       <c r="M19" s="47">
         <f>S25*100</f>
-        <v>10.839954361697224</v>
+        <v>10.067323024725884</v>
       </c>
       <c r="N19" s="47">
         <f>S27*100</f>
-        <v>11.069967905639233</v>
-      </c>
-      <c r="Q19" s="153" t="str">
+        <v>9.9421439962364531</v>
+      </c>
+      <c r="Q19" s="155" t="str">
         <f>Q10</f>
         <v>1YR</v>
       </c>
-      <c r="R19" s="154"/>
+      <c r="R19" s="156"/>
       <c r="S19" s="113">
         <f>($S$15-S10)/S10</f>
-        <v>0.14366496598639455</v>
+        <v>0.36137563258420852</v>
       </c>
       <c r="T19" s="118">
         <f>($T$15-T10)/T10</f>
-        <v>0.18398826898926829</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.56351628330676362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <v>41305</v>
       </c>
@@ -3334,38 +3534,38 @@
         <v>16</v>
       </c>
       <c r="J20" s="48">
-        <v>13.51</v>
+        <v>-7.13</v>
       </c>
       <c r="K20" s="48">
-        <v>13.51</v>
+        <v>35.08</v>
       </c>
       <c r="L20" s="48">
-        <v>10.4</v>
+        <v>5.28</v>
       </c>
       <c r="M20" s="48">
-        <v>10.012</v>
+        <v>9.26</v>
       </c>
       <c r="N20" s="54">
-        <v>10.52</v>
+        <v>9.39</v>
       </c>
       <c r="O20" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="153" t="str">
+      <c r="Q20" s="155" t="str">
         <f>Q11</f>
         <v>2YR</v>
       </c>
-      <c r="R20" s="154"/>
+      <c r="R20" s="156"/>
       <c r="S20" s="113">
         <f>($S$15-S11)/S11</f>
-        <v>0.41714279693274631</v>
+        <v>0.11658189725197131</v>
       </c>
       <c r="T20" s="118">
         <f>($T$15-T11)/T11</f>
-        <v>0.55678320780382806</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.45441577837958008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <v>41333</v>
       </c>
@@ -3396,38 +3596,38 @@
       </c>
       <c r="J21" s="50">
         <f>T18*100</f>
-        <v>18.398826898926828</v>
+        <v>6.1748728952811787</v>
       </c>
       <c r="K21" s="50">
         <f>T19*100</f>
-        <v>18.398826898926828</v>
+        <v>56.351628330676363</v>
       </c>
       <c r="L21" s="50">
         <f>T23*100</f>
-        <v>14.178904188562003</v>
+        <v>16.778498637956616</v>
       </c>
       <c r="M21" s="50">
         <f>T25*100</f>
-        <v>15.216856682869984</v>
-      </c>
-      <c r="N21" s="137">
-        <v>14.33</v>
+        <v>16.294038412866541</v>
+      </c>
+      <c r="N21" s="136">
+        <v>14.64</v>
       </c>
       <c r="O21" s="23"/>
-      <c r="Q21" s="153" t="s">
+      <c r="Q21" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="R21" s="154"/>
+      <c r="R21" s="156"/>
       <c r="S21" s="113">
         <f>(1+S20)^(12/24)-1</f>
-        <v>0.19043806933949581</v>
+        <v>5.6684388666725427E-2</v>
       </c>
       <c r="T21" s="118">
         <f>(1+T20)^(12/24)-1</f>
-        <v>0.24771118765675415</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.20599161621446616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="22">
         <v>41364</v>
       </c>
@@ -3457,36 +3657,36 @@
         <v>18</v>
       </c>
       <c r="J22" s="48">
-        <v>7.79</v>
+        <v>-12.34</v>
       </c>
       <c r="K22" s="48">
-        <v>7.79</v>
+        <v>28.31</v>
       </c>
       <c r="L22" s="48">
-        <v>9.0500000000000007</v>
+        <v>3.99</v>
       </c>
       <c r="M22" s="48">
-        <v>9.5299999999999994</v>
+        <v>8.77</v>
       </c>
       <c r="N22" s="48">
-        <v>10.37</v>
+        <v>9.27</v>
       </c>
       <c r="O22" s="23"/>
-      <c r="Q22" s="153" t="str">
+      <c r="Q22" s="155" t="str">
         <f>Q12</f>
         <v>3YR</v>
       </c>
-      <c r="R22" s="154"/>
+      <c r="R22" s="156"/>
       <c r="S22" s="113">
         <f>($S$15-S12)/S12</f>
-        <v>0.37590792838874681</v>
+        <v>0.19324650523005207</v>
       </c>
       <c r="T22" s="118">
         <f>($T$15-T12)/T12</f>
-        <v>0.48853006852415964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.59253381375901482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>41394</v>
       </c>
@@ -3517,20 +3717,20 @@
       <c r="L23" s="120"/>
       <c r="M23" s="120"/>
       <c r="N23" s="120"/>
-      <c r="Q23" s="153" t="s">
+      <c r="Q23" s="155" t="s">
         <v>23</v>
       </c>
-      <c r="R23" s="154"/>
+      <c r="R23" s="156"/>
       <c r="S23" s="113">
         <f>(1+S22)^(12/36)-1</f>
-        <v>0.11223474472541861</v>
+        <v>6.0661301253508437E-2</v>
       </c>
       <c r="T23" s="118">
         <f>(1+T22)^(12/36)-1</f>
-        <v>0.14178904188562003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.16778498637956618</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>41425</v>
       </c>
@@ -3570,20 +3770,20 @@
       <c r="L24" s="95"/>
       <c r="M24" s="95"/>
       <c r="N24" s="95"/>
-      <c r="Q24" s="153" t="s">
+      <c r="Q24" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="R24" s="154"/>
+      <c r="R24" s="156"/>
       <c r="S24" s="113">
         <f>S15/S13-1</f>
-        <v>0.67294510856822298</v>
+        <v>0.6154444183289467</v>
       </c>
       <c r="T24" s="118">
         <f>T15/T13-1</f>
-        <v>1.0303930290977612</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1.1270968291631278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>41455</v>
       </c>
@@ -3609,7 +3809,7 @@
         <f>(E25-(MAX($E$2:E25)))/(MAX($E$2:E25))</f>
         <v>-1.3428114595806792E-2</v>
       </c>
-      <c r="I25" s="135">
+      <c r="I25" s="138">
         <v>2011</v>
       </c>
       <c r="J25" s="122">
@@ -3623,20 +3823,20 @@
       <c r="L25" s="124"/>
       <c r="M25" s="95"/>
       <c r="N25" s="95"/>
-      <c r="Q25" s="153" t="s">
+      <c r="Q25" s="155" t="s">
         <v>70</v>
       </c>
-      <c r="R25" s="154"/>
+      <c r="R25" s="156"/>
       <c r="S25" s="113">
         <f>(1+S24)^(12/60)-1</f>
-        <v>0.10839954361697224</v>
+        <v>0.10067323024725883</v>
       </c>
       <c r="T25" s="118">
         <f>(1+T24)^(12/60)-1</f>
-        <v>0.15216856682869984</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.16294038412866541</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>41486</v>
       </c>
@@ -3662,7 +3862,7 @@
         <f>(E26-(MAX($E$2:E26)))/(MAX($E$2:E26))</f>
         <v>0</v>
       </c>
-      <c r="I26" s="135">
+      <c r="I26" s="138">
         <v>2012</v>
       </c>
       <c r="J26" s="122">
@@ -3675,20 +3875,20 @@
       </c>
       <c r="L26" s="124"/>
       <c r="M26" s="120"/>
-      <c r="Q26" s="157" t="s">
+      <c r="Q26" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="R26" s="158"/>
+      <c r="R26" s="160"/>
       <c r="S26" s="113">
         <f>($S$15-S14)/S14</f>
-        <v>1.6899</v>
+        <v>1.5018</v>
       </c>
       <c r="T26" s="118">
         <f>($T$15-T14)/T14</f>
-        <v>2.5332729226622019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.7514480346799792</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22">
         <v>41517</v>
       </c>
@@ -3714,7 +3914,7 @@
         <f>(E27-(MAX($E$2:E27)))/(MAX($E$2:E27))</f>
         <v>-2.8961318147223237E-2</v>
       </c>
-      <c r="I27" s="135">
+      <c r="I27" s="138">
         <v>2013</v>
       </c>
       <c r="J27" s="122">
@@ -3727,20 +3927,20 @@
       </c>
       <c r="L27" s="124"/>
       <c r="M27" s="120"/>
-      <c r="Q27" s="155" t="s">
+      <c r="Q27" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="R27" s="156"/>
+      <c r="R27" s="158"/>
       <c r="S27" s="125">
         <f>(1+S26)^(12/$J$3)-1</f>
-        <v>0.11069967905639233</v>
+        <v>9.9421439962364522E-2</v>
       </c>
       <c r="T27" s="126">
         <f>(1+T26)^(12/$J$3)-1</f>
-        <v>0.14330919025588806</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.14643748087542741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>41547</v>
       </c>
@@ -3766,7 +3966,7 @@
         <f>(E28-(MAX($E$2:E28)))/(MAX($E$2:E28))</f>
         <v>0</v>
       </c>
-      <c r="I28" s="135">
+      <c r="I28" s="138">
         <v>2014</v>
       </c>
       <c r="J28" s="122">
@@ -3780,7 +3980,7 @@
       <c r="L28" s="124"/>
       <c r="M28" s="120"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>41578</v>
       </c>
@@ -3806,7 +4006,7 @@
         <f>(E29-(MAX($E$2:E29)))/(MAX($E$2:E29))</f>
         <v>0</v>
       </c>
-      <c r="I29" s="135">
+      <c r="I29" s="138">
         <v>2015</v>
       </c>
       <c r="J29" s="122">
@@ -3820,7 +4020,7 @@
       <c r="L29" s="124"/>
       <c r="M29" s="120"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>41608</v>
       </c>
@@ -3846,7 +4046,7 @@
         <f>(E30-(MAX($E$2:E30)))/(MAX($E$2:E30))</f>
         <v>0</v>
       </c>
-      <c r="I30" s="135">
+      <c r="I30" s="138">
         <v>2016</v>
       </c>
       <c r="J30" s="122">
@@ -3860,7 +4060,7 @@
       <c r="L30" s="124"/>
       <c r="M30" s="120"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>41639</v>
       </c>
@@ -3886,7 +4086,7 @@
         <f>(E31-(MAX($E$2:E31)))/(MAX($E$2:E31))</f>
         <v>0</v>
       </c>
-      <c r="I31" s="135">
+      <c r="I31" s="138">
         <v>2017</v>
       </c>
       <c r="J31" s="122">
@@ -3899,7 +4099,7 @@
       </c>
       <c r="M31" s="120"/>
     </row>
-    <row r="32" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="22">
         <v>41670</v>
       </c>
@@ -3925,7 +4125,7 @@
         <f>(E32-(MAX($E$2:E32)))/(MAX($E$2:E32))</f>
         <v>-3.4576048305128317E-2</v>
       </c>
-      <c r="I32" s="135">
+      <c r="I32" s="138">
         <v>2018</v>
       </c>
       <c r="J32" s="122">
@@ -3938,7 +4138,7 @@
       </c>
       <c r="N32" s="95"/>
     </row>
-    <row r="33" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="22">
         <v>41698</v>
       </c>
@@ -3964,7 +4164,7 @@
         <f>(E33-(MAX($E$2:E33)))/(MAX($E$2:E33))</f>
         <v>0</v>
       </c>
-      <c r="I33" s="135">
+      <c r="I33" s="138">
         <v>2019</v>
       </c>
       <c r="J33" s="122">
@@ -3977,7 +4177,7 @@
       </c>
       <c r="N33" s="95"/>
     </row>
-    <row r="34" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22">
         <v>41729</v>
       </c>
@@ -4003,20 +4203,20 @@
         <f>(E34-(MAX($E$2:E34)))/(MAX($E$2:E34))</f>
         <v>0</v>
       </c>
-      <c r="I34" s="53">
+      <c r="I34" s="138">
         <v>2020</v>
       </c>
-      <c r="J34" s="127">
-        <f>J19/100</f>
-        <v>0.14360000000000001</v>
-      </c>
-      <c r="K34" s="127">
-        <f>T18</f>
-        <v>0.18398826898926829</v>
+      <c r="J34" s="122">
+        <f>B82/B70-1</f>
+        <v>0.20000011446925781</v>
+      </c>
+      <c r="K34" s="122">
+        <f>E82/E70-1</f>
+        <v>0.13991860226829544</v>
       </c>
       <c r="N34" s="95"/>
     </row>
-    <row r="35" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22">
         <v>41759</v>
       </c>
@@ -4042,9 +4242,20 @@
         <f>(E35-(MAX($E$2:E35)))/(MAX($E$2:E35))</f>
         <v>0</v>
       </c>
+      <c r="I35" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="J35" s="127">
+        <f>J19/100</f>
+        <v>-6.9900000000000004E-2</v>
+      </c>
+      <c r="K35" s="127">
+        <f>T18</f>
+        <v>6.1748728952811791E-2</v>
+      </c>
       <c r="N35" s="95"/>
     </row>
-    <row r="36" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22">
         <v>41790</v>
       </c>
@@ -4072,7 +4283,7 @@
       </c>
       <c r="N36" s="95"/>
     </row>
-    <row r="37" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="22">
         <v>41820</v>
       </c>
@@ -4101,7 +4312,7 @@
       <c r="L37" s="69"/>
       <c r="N37" s="95"/>
     </row>
-    <row r="38" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22">
         <v>41851</v>
       </c>
@@ -4132,7 +4343,7 @@
       <c r="N38" s="128"/>
       <c r="O38" s="128"/>
     </row>
-    <row r="39" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22">
         <v>41882</v>
       </c>
@@ -4162,7 +4373,7 @@
       <c r="N39" s="128"/>
       <c r="O39" s="128"/>
     </row>
-    <row r="40" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
         <v>41912</v>
       </c>
@@ -4188,13 +4399,10 @@
         <f>(E40-(MAX($E$2:E40)))/(MAX($E$2:E40))</f>
         <v>-1.4022847167708763E-2</v>
       </c>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
-      <c r="K40" s="69"/>
       <c r="L40" s="95"/>
       <c r="N40" s="95"/>
     </row>
-    <row r="41" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
         <v>41943</v>
       </c>
@@ -4227,7 +4435,7 @@
       <c r="M41" s="95"/>
       <c r="N41" s="95"/>
     </row>
-    <row r="42" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
         <v>41973</v>
       </c>
@@ -4253,11 +4461,14 @@
         <f>(E42-(MAX($E$2:E42)))/(MAX($E$2:E42))</f>
         <v>0</v>
       </c>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
+      <c r="K42" s="69"/>
       <c r="L42" s="129"/>
       <c r="M42" s="95"/>
       <c r="N42" s="95"/>
     </row>
-    <row r="43" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
         <v>42004</v>
       </c>
@@ -4283,12 +4494,11 @@
         <f>(E43-(MAX($E$2:E43)))/(MAX($E$2:E43))</f>
         <v>-2.5192116349470888E-3</v>
       </c>
-      <c r="K43" s="95"/>
       <c r="L43" s="129"/>
       <c r="M43" s="129"/>
       <c r="N43" s="129"/>
     </row>
-    <row r="44" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
         <v>42035</v>
       </c>
@@ -4319,7 +4529,7 @@
       <c r="M44" s="129"/>
       <c r="N44" s="129"/>
     </row>
-    <row r="45" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
         <v>42063</v>
       </c>
@@ -4345,13 +4555,12 @@
         <f>(E45-(MAX($E$2:E45)))/(MAX($E$2:E45))</f>
         <v>0</v>
       </c>
-      <c r="J45" s="129"/>
-      <c r="K45" s="129"/>
+      <c r="K45" s="95"/>
       <c r="L45" s="129"/>
       <c r="M45" s="129"/>
       <c r="N45" s="129"/>
     </row>
-    <row r="46" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
         <v>42094</v>
       </c>
@@ -4383,7 +4592,7 @@
       <c r="M46" s="129"/>
       <c r="N46" s="129"/>
     </row>
-    <row r="47" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
         <v>42124</v>
       </c>
@@ -4415,7 +4624,7 @@
       <c r="M47" s="129"/>
       <c r="N47" s="129"/>
     </row>
-    <row r="48" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
         <v>42155</v>
       </c>
@@ -4447,7 +4656,7 @@
       <c r="M48" s="129"/>
       <c r="N48" s="129"/>
     </row>
-    <row r="49" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
         <v>42185</v>
       </c>
@@ -4479,7 +4688,7 @@
       <c r="M49" s="129"/>
       <c r="N49" s="129"/>
     </row>
-    <row r="50" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
         <v>42216</v>
       </c>
@@ -4511,7 +4720,7 @@
       <c r="M50" s="129"/>
       <c r="N50" s="129"/>
     </row>
-    <row r="51" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
         <v>42247</v>
       </c>
@@ -4543,7 +4752,7 @@
       <c r="M51" s="129"/>
       <c r="N51" s="129"/>
     </row>
-    <row r="52" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
         <v>42277</v>
       </c>
@@ -4575,7 +4784,7 @@
       <c r="M52" s="129"/>
       <c r="N52" s="129"/>
     </row>
-    <row r="53" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="22">
         <v>42308</v>
       </c>
@@ -4607,7 +4816,7 @@
       <c r="M53" s="130"/>
       <c r="N53" s="130"/>
     </row>
-    <row r="54" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="22">
         <v>42338</v>
       </c>
@@ -4639,7 +4848,7 @@
       <c r="M54" s="130"/>
       <c r="N54" s="130"/>
     </row>
-    <row r="55" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
         <v>42369</v>
       </c>
@@ -4666,12 +4875,12 @@
         <v>-1.9046152266543714E-2</v>
       </c>
       <c r="J55" s="129"/>
-      <c r="K55" s="130"/>
+      <c r="K55" s="129"/>
       <c r="L55" s="130"/>
       <c r="M55" s="130"/>
       <c r="N55" s="130"/>
     </row>
-    <row r="56" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
         <v>42400</v>
       </c>
@@ -4703,7 +4912,7 @@
       <c r="M56" s="130"/>
       <c r="N56" s="130"/>
     </row>
-    <row r="57" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
         <v>42429</v>
       </c>
@@ -4735,7 +4944,7 @@
       <c r="M57" s="130"/>
       <c r="N57" s="130"/>
     </row>
-    <row r="58" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
         <v>42460</v>
       </c>
@@ -4767,7 +4976,7 @@
       <c r="M58" s="130"/>
       <c r="N58" s="130"/>
     </row>
-    <row r="59" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22">
         <v>42490</v>
       </c>
@@ -4799,7 +5008,7 @@
       <c r="M59" s="130"/>
       <c r="N59" s="130"/>
     </row>
-    <row r="60" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="22">
         <v>42521</v>
       </c>
@@ -4831,7 +5040,7 @@
       <c r="M60" s="130"/>
       <c r="N60" s="130"/>
     </row>
-    <row r="61" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
         <v>42551</v>
       </c>
@@ -4863,7 +5072,7 @@
       <c r="M61" s="130"/>
       <c r="N61" s="130"/>
     </row>
-    <row r="62" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
         <v>42582</v>
       </c>
@@ -4895,7 +5104,7 @@
       <c r="M62" s="130"/>
       <c r="N62" s="130"/>
     </row>
-    <row r="63" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
         <v>42613</v>
       </c>
@@ -4927,7 +5136,7 @@
       <c r="M63" s="130"/>
       <c r="N63" s="130"/>
     </row>
-    <row r="64" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="22">
         <v>42643</v>
       </c>
@@ -4959,7 +5168,7 @@
       <c r="M64" s="130"/>
       <c r="N64" s="130"/>
     </row>
-    <row r="65" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="22">
         <v>42674</v>
       </c>
@@ -4991,7 +5200,7 @@
       <c r="M65" s="130"/>
       <c r="N65" s="130"/>
     </row>
-    <row r="66" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
         <v>42704</v>
       </c>
@@ -5023,7 +5232,7 @@
       <c r="M66" s="130"/>
       <c r="N66" s="130"/>
     </row>
-    <row r="67" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
         <v>42735</v>
       </c>
@@ -5031,7 +5240,7 @@
         <v>16705.73</v>
       </c>
       <c r="C67" s="69">
-        <f t="shared" ref="C67:C115" si="4">(B67-B66)/B66</f>
+        <f t="shared" ref="C67:C118" si="4">(B67-B66)/B66</f>
         <v>2.9327623654091996E-2</v>
       </c>
       <c r="D67" s="70">
@@ -5049,14 +5258,13 @@
         <f>(E67-(MAX($E$2:E67)))/(MAX($E$2:E67))</f>
         <v>0</v>
       </c>
-      <c r="I67" s="131"/>
       <c r="J67" s="129"/>
       <c r="K67" s="130"/>
       <c r="L67" s="130"/>
       <c r="M67" s="130"/>
       <c r="N67" s="130"/>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="51">
         <v>42766</v>
       </c>
@@ -5072,7 +5280,7 @@
         <v>-7.6986215559432192E-2</v>
       </c>
       <c r="E68" s="100">
-        <f t="shared" ref="E68:E115" si="5">E67*(1+F68)</f>
+        <f t="shared" ref="E68:E118" si="5">E67*(1+F68)</f>
         <v>19852.692069505683</v>
       </c>
       <c r="F68" s="72">
@@ -5089,7 +5297,7 @@
       <c r="M68" s="130"/>
       <c r="N68" s="130"/>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="51">
         <v>42794</v>
       </c>
@@ -5122,7 +5330,7 @@
       <c r="M69" s="130"/>
       <c r="N69" s="130"/>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="51">
         <v>42825</v>
       </c>
@@ -5148,13 +5356,14 @@
         <f>(E70-(MAX($E$2:E70)))/(MAX($E$2:E70))</f>
         <v>0</v>
       </c>
+      <c r="I70" s="131"/>
       <c r="J70" s="129"/>
       <c r="K70" s="130"/>
       <c r="L70" s="130"/>
       <c r="M70" s="130"/>
       <c r="N70" s="130"/>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="52" t="s">
         <v>72</v>
       </c>
@@ -5186,7 +5395,7 @@
       <c r="M71" s="130"/>
       <c r="N71" s="130"/>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="52" t="s">
         <v>73</v>
       </c>
@@ -5218,7 +5427,7 @@
       <c r="M72" s="130"/>
       <c r="N72" s="130"/>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="52" t="s">
         <v>74</v>
       </c>
@@ -5250,7 +5459,7 @@
       <c r="M73" s="130"/>
       <c r="N73" s="130"/>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="51">
         <v>42947</v>
       </c>
@@ -5282,7 +5491,7 @@
       <c r="M74" s="130"/>
       <c r="N74" s="130"/>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="51">
         <v>42978</v>
       </c>
@@ -5314,7 +5523,7 @@
       <c r="M75" s="130"/>
       <c r="N75" s="130"/>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="51">
         <v>43008</v>
       </c>
@@ -5346,7 +5555,7 @@
       <c r="M76" s="130"/>
       <c r="N76" s="130"/>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="51">
         <f>EOMONTH(A76,1)</f>
         <v>43039</v>
@@ -5379,9 +5588,9 @@
       <c r="M77" s="130"/>
       <c r="N77" s="130"/>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="51">
-        <f t="shared" ref="A78:A115" si="6">EOMONTH(A77,1)</f>
+        <f t="shared" ref="A78:A118" si="6">EOMONTH(A77,1)</f>
         <v>43069</v>
       </c>
       <c r="B78" s="71">
@@ -5412,7 +5621,7 @@
       <c r="M78" s="130"/>
       <c r="N78" s="130"/>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="51">
         <f t="shared" si="6"/>
         <v>43100</v>
@@ -5445,7 +5654,7 @@
       <c r="M79" s="130"/>
       <c r="N79" s="130"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="51">
         <f t="shared" si="6"/>
         <v>43131</v>
@@ -5478,7 +5687,7 @@
       <c r="M80" s="130"/>
       <c r="N80" s="130"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="51">
         <f t="shared" si="6"/>
         <v>43159</v>
@@ -5511,7 +5720,7 @@
       <c r="M81" s="130"/>
       <c r="N81" s="130"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="51">
         <f t="shared" si="6"/>
         <v>43190</v>
@@ -5544,7 +5753,7 @@
       <c r="M82" s="130"/>
       <c r="N82" s="130"/>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="51">
         <f t="shared" si="6"/>
         <v>43220</v>
@@ -5577,7 +5786,7 @@
       <c r="M83" s="130"/>
       <c r="N83" s="130"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="51">
         <f t="shared" si="6"/>
         <v>43251</v>
@@ -5610,7 +5819,7 @@
       <c r="M84" s="130"/>
       <c r="N84" s="130"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="51">
         <f t="shared" si="6"/>
         <v>43281</v>
@@ -5643,7 +5852,7 @@
       <c r="M85" s="130"/>
       <c r="N85" s="130"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="51">
         <f t="shared" si="6"/>
         <v>43312</v>
@@ -5676,7 +5885,7 @@
       <c r="M86" s="130"/>
       <c r="N86" s="130"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="51">
         <f t="shared" si="6"/>
         <v>43343</v>
@@ -5709,7 +5918,7 @@
       <c r="M87" s="130"/>
       <c r="N87" s="130"/>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="51">
         <f t="shared" si="6"/>
         <v>43373</v>
@@ -5742,7 +5951,7 @@
       <c r="M88" s="130"/>
       <c r="N88" s="130"/>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="51">
         <f t="shared" si="6"/>
         <v>43404</v>
@@ -5775,7 +5984,7 @@
       <c r="M89" s="130"/>
       <c r="N89" s="130"/>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="51">
         <f t="shared" si="6"/>
         <v>43434</v>
@@ -5808,7 +6017,7 @@
       <c r="M90" s="130"/>
       <c r="N90" s="130"/>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="51">
         <f t="shared" si="6"/>
         <v>43465</v>
@@ -5841,7 +6050,7 @@
       <c r="M91" s="130"/>
       <c r="N91" s="130"/>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="51">
         <f t="shared" si="6"/>
         <v>43496</v>
@@ -5874,7 +6083,7 @@
       <c r="M92" s="130"/>
       <c r="N92" s="130"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="51">
         <f t="shared" si="6"/>
         <v>43524</v>
@@ -5907,7 +6116,7 @@
       <c r="M93" s="130"/>
       <c r="N93" s="130"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="51">
         <f t="shared" si="6"/>
         <v>43555</v>
@@ -5940,7 +6149,7 @@
       <c r="M94" s="130"/>
       <c r="N94" s="130"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="51">
         <f t="shared" si="6"/>
         <v>43585</v>
@@ -5973,7 +6182,7 @@
       <c r="M95" s="130"/>
       <c r="N95" s="130"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="51">
         <f t="shared" si="6"/>
         <v>43616</v>
@@ -6006,7 +6215,7 @@
       <c r="M96" s="130"/>
       <c r="N96" s="130"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="51">
         <f t="shared" si="6"/>
         <v>43646</v>
@@ -6039,7 +6248,7 @@
       <c r="M97" s="130"/>
       <c r="N97" s="130"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="51">
         <f t="shared" si="6"/>
         <v>43677</v>
@@ -6072,7 +6281,7 @@
       <c r="M98" s="130"/>
       <c r="N98" s="130"/>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="51">
         <f t="shared" si="6"/>
         <v>43708</v>
@@ -6105,7 +6314,7 @@
       <c r="M99" s="130"/>
       <c r="N99" s="130"/>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="51">
         <f t="shared" si="6"/>
         <v>43738</v>
@@ -6138,7 +6347,7 @@
       <c r="M100" s="130"/>
       <c r="N100" s="130"/>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="51">
         <f t="shared" si="6"/>
         <v>43769</v>
@@ -6171,7 +6380,7 @@
       <c r="M101" s="130"/>
       <c r="N101" s="130"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="51">
         <f t="shared" si="6"/>
         <v>43799</v>
@@ -6204,7 +6413,7 @@
       <c r="M102" s="130"/>
       <c r="N102" s="130"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="51">
         <f t="shared" si="6"/>
         <v>43830</v>
@@ -6237,7 +6446,7 @@
       <c r="M103" s="130"/>
       <c r="N103" s="130"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="51">
         <f t="shared" si="6"/>
         <v>43861</v>
@@ -6270,7 +6479,7 @@
       <c r="M104" s="130"/>
       <c r="N104" s="130"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="51">
         <f t="shared" si="6"/>
         <v>43890</v>
@@ -6303,7 +6512,7 @@
       <c r="M105" s="130"/>
       <c r="N105" s="130"/>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="51">
         <f t="shared" si="6"/>
         <v>43921</v>
@@ -6336,7 +6545,7 @@
       <c r="M106" s="130"/>
       <c r="N106" s="130"/>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="51">
         <f t="shared" si="6"/>
         <v>43951</v>
@@ -6369,7 +6578,7 @@
       <c r="M107" s="130"/>
       <c r="N107" s="130"/>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="51">
         <f t="shared" si="6"/>
         <v>43982</v>
@@ -6402,7 +6611,7 @@
       <c r="M108" s="130"/>
       <c r="N108" s="130"/>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="51">
         <f t="shared" si="6"/>
         <v>44012</v>
@@ -6435,7 +6644,7 @@
       <c r="M109" s="130"/>
       <c r="N109" s="130"/>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="51">
         <f t="shared" si="6"/>
         <v>44043</v>
@@ -6468,7 +6677,7 @@
       <c r="M110" s="130"/>
       <c r="N110" s="130"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="51">
         <f t="shared" si="6"/>
         <v>44074</v>
@@ -6501,7 +6710,7 @@
       <c r="M111" s="130"/>
       <c r="N111" s="130"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="51">
         <f t="shared" si="6"/>
         <v>44104</v>
@@ -6534,7 +6743,7 @@
       <c r="M112" s="130"/>
       <c r="N112" s="130"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="51">
         <f t="shared" si="6"/>
         <v>44135</v>
@@ -6567,7 +6776,7 @@
       <c r="M113" s="130"/>
       <c r="N113" s="130"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="51">
         <f t="shared" si="6"/>
         <v>44165</v>
@@ -6600,7 +6809,7 @@
       <c r="M114" s="130"/>
       <c r="N114" s="130"/>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="51">
         <f t="shared" si="6"/>
         <v>44196</v>
@@ -6629,30 +6838,131 @@
       </c>
       <c r="J115" s="129"/>
       <c r="K115" s="130"/>
+      <c r="L115" s="130"/>
       <c r="M115" s="130"/>
       <c r="N115" s="130"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C116" s="69"/>
-      <c r="D116" s="70"/>
-      <c r="F116" s="69"/>
-      <c r="G116" s="69"/>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" s="51">
+        <f t="shared" si="6"/>
+        <v>44227</v>
+      </c>
+      <c r="B116" s="73">
+        <v>27050</v>
+      </c>
+      <c r="C116" s="69">
+        <f t="shared" si="4"/>
+        <v>5.6135915833302351E-3</v>
+      </c>
+      <c r="D116" s="70">
+        <f>(B116-(MAX($B$2:B116)))/(MAX($B$2:B116))</f>
+        <v>0</v>
+      </c>
+      <c r="E116" s="100">
+        <f t="shared" si="5"/>
+        <v>34976.002695712399</v>
+      </c>
+      <c r="F116" s="72">
+        <v>-1.009620651214338E-2</v>
+      </c>
+      <c r="G116" s="69">
+        <f>(E116-(MAX($E$2:E116)))/(MAX($E$2:E116))</f>
+        <v>-1.0096206512143333E-2</v>
+      </c>
       <c r="J116" s="129"/>
       <c r="K116" s="130"/>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C117" s="69"/>
-      <c r="D117" s="70"/>
-      <c r="F117" s="69"/>
-      <c r="G117" s="69"/>
+      <c r="L116" s="130"/>
+      <c r="M116" s="130"/>
+      <c r="N116" s="130"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" s="51">
+        <f t="shared" si="6"/>
+        <v>44255</v>
+      </c>
+      <c r="B117" s="73">
+        <v>26841</v>
+      </c>
+      <c r="C117" s="69">
+        <f t="shared" si="4"/>
+        <v>-7.7264325323475047E-3</v>
+      </c>
+      <c r="D117" s="70">
+        <f>(B117-(MAX($B$2:B117)))/(MAX($B$2:B117))</f>
+        <v>-7.7264325323475047E-3</v>
+      </c>
+      <c r="E117" s="100">
+        <f t="shared" si="5"/>
+        <v>35940.448435394013</v>
+      </c>
+      <c r="F117" s="72">
+        <v>2.7574498666190994E-2</v>
+      </c>
+      <c r="G117" s="69">
+        <f>(E117-(MAX($E$2:E117)))/(MAX($E$2:E117))</f>
+        <v>0</v>
+      </c>
       <c r="J117" s="129"/>
       <c r="K117" s="130"/>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C118" s="69"/>
-      <c r="D118" s="70"/>
-      <c r="F118" s="69"/>
-      <c r="G118" s="69"/>
+      <c r="L117" s="130"/>
+      <c r="M117" s="130"/>
+      <c r="N117" s="130"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" s="51">
+        <f t="shared" si="6"/>
+        <v>44286</v>
+      </c>
+      <c r="B118" s="73">
+        <v>25018</v>
+      </c>
+      <c r="C118" s="69">
+        <f t="shared" si="4"/>
+        <v>-6.7918482917924072E-2</v>
+      </c>
+      <c r="D118" s="70">
+        <f>(B118-(MAX($B$2:B118)))/(MAX($B$2:B118))</f>
+        <v>-7.5120147874306833E-2</v>
+      </c>
+      <c r="E118" s="100">
+        <f t="shared" si="5"/>
+        <v>37514.480346799792</v>
+      </c>
+      <c r="F118" s="72">
+        <v>4.3795555701961586E-2</v>
+      </c>
+      <c r="G118" s="69">
+        <f>(E118-(MAX($E$2:E118)))/(MAX($E$2:E118))</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="129"/>
+      <c r="K118" s="130"/>
+      <c r="M118" s="130"/>
+      <c r="N118" s="130"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C119" s="69"/>
+      <c r="D119" s="70"/>
+      <c r="F119" s="69"/>
+      <c r="G119" s="69"/>
+      <c r="J119" s="129"/>
+      <c r="K119" s="130"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C120" s="69"/>
+      <c r="D120" s="70"/>
+      <c r="F120" s="69"/>
+      <c r="G120" s="69"/>
+      <c r="J120" s="129"/>
+      <c r="K120" s="130"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C121" s="69"/>
+      <c r="D121" s="70"/>
+      <c r="F121" s="69"/>
+      <c r="G121" s="69"/>
+      <c r="J121" s="129"/>
+      <c r="K121" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -6683,73 +6993,75 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B92333E-47BF-4B33-B76D-BED3CA24E83C}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
         <v>90</v>
       </c>
-      <c r="B1" t="s">
-        <v>91</v>
-      </c>
       <c r="C1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B2" s="94">
         <f>'INS Portfolio'!B4</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'INS Portfolio'!A5</f>
         <v>Average Market Cap: $B</v>
       </c>
       <c r="B3" s="94" t="str">
         <f>'INS Portfolio'!B5</f>
-        <v>$193.9B</v>
+        <v>$263.5B</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'INS Portfolio'!A6</f>
         <v>Median Market Cap: $B</v>
       </c>
       <c r="B4" s="94" t="str">
         <f>'INS Portfolio'!B6</f>
-        <v>$41.9B</v>
+        <v>$42B</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B5" s="91">
         <f>'INS Portfolio'!B7</f>
-        <v>69.64</v>
+        <v>67.209999999999994</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -6766,23 +7078,23 @@
   <dimension ref="A2:F26"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="3" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="11"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>24</v>
       </c>
@@ -6792,97 +7104,97 @@
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="E4" s="14">
-        <v>7.8E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="E5" s="14">
-        <v>7.2999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="E6" s="14">
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="10">
+        <v>67.209999999999994</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="B7" s="10">
-        <v>69.64</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="E7" s="14">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="E8" s="14">
-        <v>4.7E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="12"/>
       <c r="D9" s="7" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="E9" s="14">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="12"/>
       <c r="D10" s="7" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="E10" s="14">
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" s="7" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="E11" s="14">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="7" t="s">
         <v>77</v>
       </c>
@@ -6890,88 +7202,88 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D13" s="7" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="E13" s="14">
-        <v>4.5999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E15" s="6"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="14">
-        <v>0.57000687164504793</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.3">
+        <v>0.45832881011269194</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="14">
+        <v>0.27201260161407176</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="14">
-        <v>0.13284376872348322</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D18" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="E18" s="14">
-        <v>0.12616773534971859</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+        <v>0.12383800275664762</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="14">
+        <v>7.7424163363336629E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="14">
-        <v>8.0041707423824146E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D20" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="E20" s="14">
-        <v>7.7206027301581714E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+        <v>5.7872182870053662E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E21" s="14">
-        <v>1.3733889556344294E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+        <v>1.0524239283198528E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="7"/>
       <c r="E22" s="14"/>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="7"/>
       <c r="E23" s="14"/>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D24" s="7"/>
       <c r="E24" s="14"/>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D25" s="7"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" s="7"/>
       <c r="E26" s="14"/>
     </row>
@@ -6985,58 +7297,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q72"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.44140625" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="38.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="90"/>
       <c r="C3" s="90" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="90"/>
       <c r="C4" s="90" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="90"/>
       <c r="C5" s="90" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="I5" s="55" t="s">
         <v>48</v>
       </c>
       <c r="J5" s="56">
-        <v>102.90852845311339</v>
+        <v>108.14131423738674</v>
       </c>
       <c r="K5" s="56">
-        <v>193924.42458499453</v>
+        <v>263515.08181623591</v>
       </c>
       <c r="P5" s="57"/>
       <c r="Q5" s="57"/>
     </row>
-    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="90"/>
       <c r="C6" s="90" t="s">
         <v>31</v>
       </c>
@@ -7044,15 +7361,15 @@
         <v>49</v>
       </c>
       <c r="J6" s="56">
-        <v>69.640325746505439</v>
+        <v>67.207382932700014</v>
       </c>
       <c r="K6" s="56">
-        <v>41871.559802502496</v>
+        <v>41953.099011190003</v>
       </c>
       <c r="P6" s="57"/>
       <c r="Q6" s="57"/>
     </row>
-    <row r="7" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
         <v>32</v>
       </c>
@@ -7098,7 +7415,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="75" t="s">
         <v>65</v>
       </c>
@@ -7117,9 +7434,9 @@
       <c r="P8" s="57"/>
       <c r="Q8" s="57"/>
     </row>
-    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="60"/>
       <c r="C9" s="60"/>
@@ -7137,78 +7454,78 @@
         <v>58</v>
       </c>
       <c r="Q9" s="78">
-        <v>0.57000687164504793</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.45832881011269194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>123</v>
+        <v>191</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D10" s="79">
-        <v>10250</v>
+        <v>13800</v>
       </c>
       <c r="E10" s="80">
-        <v>356.94</v>
+        <v>294.52999999999997</v>
       </c>
       <c r="F10" s="81">
-        <v>2966086.99</v>
+        <v>3776800.05</v>
       </c>
       <c r="G10" s="81">
-        <v>3658635</v>
+        <v>4064514</v>
       </c>
       <c r="H10" s="64">
         <v>1</v>
       </c>
       <c r="I10" s="64" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="J10" s="65">
-        <v>51.978279346830206</v>
+        <v>29.42970200340346</v>
       </c>
       <c r="K10" s="65">
-        <v>349481.95060981042</v>
+        <v>846441.41623524006</v>
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="82">
-        <v>7.7700035604735457E-2</v>
+        <v>9.416599197546939E-2</v>
       </c>
       <c r="N10" s="66">
-        <v>7.8E-2</v>
+        <v>9.4E-2</v>
       </c>
       <c r="P10" s="57" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="78">
-        <v>0.13284376872348322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.27201260161407176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="76" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="D11" s="79">
-        <v>15700</v>
+        <v>8025</v>
       </c>
       <c r="E11" s="80">
-        <v>218.73</v>
+        <v>287.44</v>
       </c>
       <c r="F11" s="81">
-        <v>2888109.53</v>
+        <v>1301336.81</v>
       </c>
       <c r="G11" s="81">
-        <v>3434061</v>
+        <v>2306706</v>
       </c>
       <c r="H11" s="64">
         <v>2</v>
@@ -7217,206 +7534,206 @@
         <v>58</v>
       </c>
       <c r="J11" s="65">
-        <v>41.139706059878989</v>
+        <v>106.44929911545444</v>
       </c>
       <c r="K11" s="65">
-        <v>521435.1486927637</v>
+        <v>14991.664307759998</v>
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="82">
-        <v>7.2930659103417922E-2</v>
+        <v>5.3441385288811184E-2</v>
       </c>
       <c r="N11" s="66">
-        <v>7.2999999999999995E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="P11" s="57" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="Q11" s="78">
-        <v>0.12616773534971859</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.12383800275664762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="76" t="s">
-        <v>147</v>
+        <v>192</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="D12" s="79">
-        <v>10700</v>
+        <v>1025</v>
       </c>
       <c r="E12" s="80">
-        <v>211.82</v>
+        <v>2068.63</v>
       </c>
       <c r="F12" s="81">
-        <v>1301534.3600000001</v>
+        <v>2098110.2200000002</v>
       </c>
       <c r="G12" s="81">
-        <v>2266474</v>
+        <v>2120345.75</v>
       </c>
       <c r="H12" s="64">
         <v>3</v>
       </c>
       <c r="I12" s="64" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="J12" s="65" t="s">
-        <v>78</v>
+        <v>194</v>
       </c>
       <c r="K12" s="65">
-        <v>44064.695748223894</v>
+        <v>1399365.5817974</v>
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="82">
-        <v>4.8134102061891164E-2</v>
+        <v>4.9123821662250551E-2</v>
       </c>
       <c r="N12" s="66">
-        <v>4.8000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="P12" s="57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="78">
-        <v>8.0041707423824146E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7.7424163363336629E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="76" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="D13" s="79">
-        <v>7050</v>
+        <v>670</v>
       </c>
       <c r="E13" s="80">
-        <v>319.12</v>
+        <v>3094.08</v>
       </c>
       <c r="F13" s="81">
-        <v>1038398.03</v>
+        <v>1590965.33</v>
       </c>
       <c r="G13" s="81">
-        <v>2249796</v>
+        <v>2073033.6</v>
       </c>
       <c r="H13" s="64">
         <v>4</v>
       </c>
       <c r="I13" s="64" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J13" s="65">
-        <v>83.913286501528376</v>
+        <v>74.988029686377772</v>
       </c>
       <c r="K13" s="65">
-        <v>15849.416804980001</v>
+        <v>1577290.66626175</v>
       </c>
       <c r="L13" s="64"/>
       <c r="M13" s="82">
-        <v>4.7779904063507676E-2</v>
+        <v>4.8027701551151859E-2</v>
       </c>
       <c r="N13" s="66">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="P13" s="57" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q13" s="78">
-        <v>7.7206027301581714E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5.7872182870053662E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
       <c r="D14" s="79">
-        <v>5900</v>
+        <v>3950</v>
       </c>
       <c r="E14" s="80">
-        <v>378.97</v>
+        <v>521.66</v>
       </c>
       <c r="F14" s="81">
-        <v>1368434.09</v>
+        <v>1682859.97</v>
       </c>
       <c r="G14" s="81">
-        <v>2235923</v>
+        <v>2060557</v>
       </c>
       <c r="H14" s="64">
         <v>5</v>
       </c>
       <c r="I14" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="J14" s="65" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="J14" s="65">
+        <v>67.207382932700014</v>
       </c>
       <c r="K14" s="65">
-        <v>34221.941449183403</v>
+        <v>236656.65376274002</v>
       </c>
       <c r="L14" s="64"/>
       <c r="M14" s="82">
-        <v>4.7485277079962036E-2</v>
+        <v>4.773864573402805E-2</v>
       </c>
       <c r="N14" s="66">
-        <v>4.7E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="P14" s="57" t="s">
         <v>67</v>
       </c>
       <c r="Q14" s="78">
-        <v>1.3733889556344294E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.0524239283198528E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="76" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="D15" s="79">
-        <v>14700</v>
+        <v>10000</v>
       </c>
       <c r="E15" s="80">
-        <v>151.72</v>
+        <v>202.45</v>
       </c>
       <c r="F15" s="81">
-        <v>1640244.46</v>
+        <v>1006674</v>
       </c>
       <c r="G15" s="81">
-        <v>2230284</v>
+        <v>2024500</v>
       </c>
       <c r="H15" s="64">
         <v>6</v>
       </c>
       <c r="I15" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="65">
-        <v>496.09556331590994</v>
+        <v>58</v>
+      </c>
+      <c r="J15" s="65" t="s">
+        <v>78</v>
       </c>
       <c r="K15" s="65">
-        <v>42224.130224499997</v>
+        <v>39819.482060999995</v>
       </c>
       <c r="L15" s="64"/>
       <c r="M15" s="82">
-        <v>4.7365519164571435E-2</v>
+        <v>4.6903283087310753E-2</v>
       </c>
       <c r="N15" s="66">
         <v>4.7E-2</v>
@@ -7428,27 +7745,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D16" s="79">
-        <v>10000</v>
+        <v>5650</v>
       </c>
       <c r="E16" s="80">
-        <v>222.3</v>
+        <v>356.05</v>
       </c>
       <c r="F16" s="81">
-        <v>1006674</v>
+        <v>1613769.39</v>
       </c>
       <c r="G16" s="81">
-        <v>2223000</v>
+        <v>2011682.5</v>
       </c>
       <c r="H16" s="64">
         <v>7</v>
@@ -7456,15 +7773,15 @@
       <c r="I16" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="65" t="s">
-        <v>78</v>
+      <c r="J16" s="65">
+        <v>56.137971895247482</v>
       </c>
       <c r="K16" s="65">
-        <v>41322.357337000001</v>
+        <v>355216.43844542</v>
       </c>
       <c r="L16" s="64"/>
       <c r="M16" s="82">
-        <v>4.7210825662939021E-2</v>
+        <v>4.6606329355045203E-2</v>
       </c>
       <c r="N16" s="66">
         <v>4.7E-2</v>
@@ -7476,43 +7793,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="76" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="D17" s="79">
-        <v>670</v>
+        <v>8750</v>
       </c>
       <c r="E17" s="80">
-        <v>3256.93</v>
+        <v>227.05</v>
       </c>
       <c r="F17" s="81">
-        <v>1590965.33</v>
+        <v>1443095.53</v>
       </c>
       <c r="G17" s="81">
-        <v>2182143.1</v>
+        <v>1986687.5</v>
       </c>
       <c r="H17" s="64">
         <v>8</v>
       </c>
       <c r="I17" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="65">
-        <v>92.893706247712302</v>
+        <v>58</v>
+      </c>
+      <c r="J17" s="65" t="s">
+        <v>78</v>
       </c>
       <c r="K17" s="65">
-        <v>1591715.3128545601</v>
+        <v>103752.15770519999</v>
       </c>
       <c r="L17" s="64"/>
       <c r="M17" s="82">
-        <v>4.6343129764140942E-2</v>
+        <v>4.6027249305271273E-2</v>
       </c>
       <c r="N17" s="66">
         <v>4.5999999999999999E-2</v>
@@ -7524,7 +7841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76" t="s">
         <v>75</v>
       </c>
@@ -7538,13 +7855,13 @@
         <v>3950</v>
       </c>
       <c r="E18" s="80">
-        <v>550.42999999999995</v>
+        <v>500.11</v>
       </c>
       <c r="F18" s="81">
         <v>1443415.98</v>
       </c>
       <c r="G18" s="81">
-        <v>2174198.5</v>
+        <v>1975434.5</v>
       </c>
       <c r="H18" s="64">
         <v>9</v>
@@ -7553,14 +7870,14 @@
         <v>58</v>
       </c>
       <c r="J18" s="65">
-        <v>141.83761747752581</v>
+        <v>633.99424739274446</v>
       </c>
       <c r="K18" s="65">
-        <v>102909.2019</v>
+        <v>98842.244000000006</v>
       </c>
       <c r="L18" s="64"/>
       <c r="M18" s="82">
-        <v>4.617440681067185E-2</v>
+        <v>4.5766541651736319E-2</v>
       </c>
       <c r="N18" s="66">
         <v>4.5999999999999999E-2</v>
@@ -7572,27 +7889,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="76" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="D19" s="79">
-        <v>9850</v>
+        <v>10700</v>
       </c>
       <c r="E19" s="80">
-        <v>217.64</v>
+        <v>182.51</v>
       </c>
       <c r="F19" s="81">
-        <v>1615848.22</v>
+        <v>1301534.3600000001</v>
       </c>
       <c r="G19" s="81">
-        <v>2143754</v>
+        <v>1952857</v>
       </c>
       <c r="H19" s="64">
         <v>10</v>
@@ -7604,14 +7921,14 @@
         <v>78</v>
       </c>
       <c r="K19" s="65">
-        <v>99100.125851999983</v>
+        <v>41654.411167740007</v>
       </c>
       <c r="L19" s="64"/>
       <c r="M19" s="82">
-        <v>4.5527843615937105E-2</v>
+        <v>4.5243469844424018E-2</v>
       </c>
       <c r="N19" s="66">
-        <v>4.5999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="P19" s="57" t="s">
         <v>29</v>
@@ -7620,43 +7937,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C20" s="76" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D20" s="79">
-        <v>3950</v>
+        <v>7500</v>
       </c>
       <c r="E20" s="80">
-        <v>540.73</v>
+        <v>242.84</v>
       </c>
       <c r="F20" s="81">
-        <v>1682859.97</v>
+        <v>1562404.35</v>
       </c>
       <c r="G20" s="81">
-        <v>2135883.5</v>
+        <v>1821300</v>
       </c>
       <c r="H20" s="57">
         <v>11</v>
       </c>
       <c r="I20" s="57" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="J20" s="61">
-        <v>69.640325746505439</v>
+        <v>100.11574615161156</v>
       </c>
       <c r="K20" s="61">
-        <v>230563.97877503998</v>
+        <v>289116.44811360002</v>
       </c>
       <c r="L20" s="57"/>
       <c r="M20" s="87">
-        <v>4.5360694356656781E-2</v>
+        <v>4.2195578901911127E-2</v>
       </c>
       <c r="N20" s="62"/>
       <c r="P20" s="67" t="s">
@@ -7666,69 +7983,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="76" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="D21" s="79">
-        <v>12200</v>
+        <v>5900</v>
       </c>
       <c r="E21" s="80">
-        <v>153.66999999999999</v>
+        <v>297.88</v>
       </c>
       <c r="F21" s="81">
-        <v>2142001.4700000002</v>
+        <v>1368434.09</v>
       </c>
       <c r="G21" s="81">
-        <v>1874774</v>
+        <v>1757492</v>
       </c>
       <c r="H21" s="57">
         <v>12</v>
       </c>
       <c r="I21" s="57" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="J21" s="61" t="s">
         <v>78</v>
       </c>
       <c r="K21" s="61">
-        <v>3934.87881552</v>
+        <v>27573.980949269997</v>
       </c>
       <c r="L21" s="57"/>
       <c r="M21" s="87">
-        <v>3.9815397423036816E-2</v>
+        <v>4.0717285650621861E-2</v>
       </c>
       <c r="N21" s="62"/>
       <c r="P21" s="67"/>
       <c r="Q21" s="68"/>
     </row>
-    <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="76" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="C22" s="76" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="D22" s="79">
-        <v>3280</v>
+        <v>15300</v>
       </c>
       <c r="E22" s="80">
-        <v>570.55999999999995</v>
+        <v>111.68</v>
       </c>
       <c r="F22" s="81">
-        <v>1747019.15</v>
+        <v>1566327.39</v>
       </c>
       <c r="G22" s="81">
-        <v>1871436.8</v>
+        <v>1708704</v>
       </c>
       <c r="H22" s="57">
         <v>13</v>
@@ -7737,334 +8054,334 @@
         <v>26</v>
       </c>
       <c r="J22" s="61">
-        <v>77.213499631435084</v>
+        <v>28.46859240498026</v>
       </c>
       <c r="K22" s="61">
-        <v>21281.189104740002</v>
+        <v>64002.86959065999</v>
       </c>
       <c r="L22" s="57"/>
       <c r="M22" s="87">
-        <v>3.9744523843458605E-2</v>
+        <v>3.9586973289414788E-2</v>
       </c>
       <c r="N22" s="62"/>
       <c r="P22" s="57"/>
       <c r="Q22" s="57"/>
     </row>
-    <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="76" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="C23" s="76" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D23" s="79">
-        <v>1100</v>
+        <v>14700</v>
       </c>
       <c r="E23" s="80">
-        <v>1675.22</v>
+        <v>112.44</v>
       </c>
       <c r="F23" s="81">
-        <v>1344209.13</v>
+        <v>1640244.46</v>
       </c>
       <c r="G23" s="81">
-        <v>1842742</v>
+        <v>1652868</v>
       </c>
       <c r="H23" s="57">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="61" t="s">
-        <v>78</v>
+      <c r="J23" s="61">
+        <v>171.70850650903668</v>
       </c>
       <c r="K23" s="61">
-        <v>82093.332341054993</v>
+        <v>32969.461396749997</v>
       </c>
       <c r="L23" s="57"/>
       <c r="M23" s="87">
-        <v>3.9135119794770842E-2</v>
+        <v>3.8293374023194444E-2</v>
       </c>
       <c r="N23" s="62"/>
       <c r="P23" s="57"/>
       <c r="Q23" s="57"/>
     </row>
-    <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="76" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D24" s="79">
-        <v>8900</v>
+        <v>3280</v>
       </c>
       <c r="E24" s="80">
-        <v>199.96</v>
+        <v>497.92</v>
       </c>
       <c r="F24" s="81">
-        <v>1637165.07</v>
+        <v>1747019.15</v>
       </c>
       <c r="G24" s="81">
-        <v>1779644</v>
+        <v>1633177.6000000001</v>
       </c>
       <c r="H24" s="57">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I24" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="61" t="s">
-        <v>78</v>
+        <v>26</v>
+      </c>
+      <c r="J24" s="61">
+        <v>66.366876492834393</v>
       </c>
       <c r="K24" s="61">
-        <v>28909.463989340798</v>
+        <v>19795.091999460001</v>
       </c>
       <c r="L24" s="57"/>
       <c r="M24" s="87">
-        <v>3.7795079903776632E-2</v>
+        <v>3.7837190073921848E-2</v>
       </c>
       <c r="N24" s="62"/>
       <c r="P24" s="57"/>
       <c r="Q24" s="57"/>
     </row>
-    <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="76" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C25" s="76" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D25" s="79">
-        <v>15300</v>
+        <v>1100</v>
       </c>
       <c r="E25" s="80">
-        <v>115.29</v>
+        <v>1472.14</v>
       </c>
       <c r="F25" s="81">
-        <v>1566327.39</v>
+        <v>1344209.13</v>
       </c>
       <c r="G25" s="81">
-        <v>1763937</v>
+        <v>1619354</v>
       </c>
       <c r="H25" s="57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I25" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="61">
-        <v>29.033746097233916</v>
+        <v>55</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>78</v>
       </c>
       <c r="K25" s="61">
-        <v>63402.614885119998</v>
+        <v>74827.031877150002</v>
       </c>
       <c r="L25" s="57"/>
       <c r="M25" s="87">
-        <v>3.7461503458123109E-2</v>
+        <v>3.7516927182301318E-2</v>
       </c>
       <c r="N25" s="62"/>
       <c r="P25" s="57"/>
       <c r="Q25" s="57"/>
     </row>
-    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="76" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C26" s="76" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="D26" s="79">
-        <v>6190</v>
+        <v>8900</v>
       </c>
       <c r="E26" s="80">
-        <v>254.26</v>
+        <v>181.75</v>
       </c>
       <c r="F26" s="81">
-        <v>1122479.74</v>
+        <v>1637165.07</v>
       </c>
       <c r="G26" s="81">
-        <v>1573869.4</v>
+        <v>1617575</v>
       </c>
       <c r="H26" s="57">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I26" s="57" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="J26" s="61" t="s">
         <v>78</v>
       </c>
       <c r="K26" s="61">
-        <v>32344.511266060003</v>
+        <v>27907.451817239998</v>
       </c>
       <c r="L26" s="57"/>
       <c r="M26" s="87">
-        <v>3.3424954502759528E-2</v>
+        <v>3.7475711602843513E-2</v>
       </c>
       <c r="N26" s="62"/>
       <c r="P26" s="57"/>
       <c r="Q26" s="57"/>
     </row>
-    <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="76" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="C27" s="76" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D27" s="79">
-        <v>6400</v>
+        <v>12200</v>
       </c>
       <c r="E27" s="80">
-        <v>234.2</v>
+        <v>126.74</v>
       </c>
       <c r="F27" s="81">
-        <v>1302260.8400000001</v>
+        <v>2142001.4700000002</v>
       </c>
       <c r="G27" s="81">
-        <v>1498880</v>
+        <v>1546228</v>
       </c>
       <c r="H27" s="57">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I27" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" s="61">
-        <v>101.57338382223242</v>
+        <v>81</v>
+      </c>
+      <c r="J27" s="61" t="s">
+        <v>78</v>
       </c>
       <c r="K27" s="61">
-        <v>271340.38912821998</v>
+        <v>3240.7521283199999</v>
       </c>
       <c r="L27" s="57"/>
       <c r="M27" s="87">
-        <v>3.1832371736242031E-2</v>
+        <v>3.5822756039281964E-2</v>
       </c>
       <c r="N27" s="62"/>
       <c r="P27" s="57"/>
       <c r="Q27" s="57"/>
     </row>
-    <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="76" t="s">
-        <v>98</v>
-      </c>
       <c r="C28" s="76" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D28" s="79">
         <v>4280</v>
       </c>
       <c r="E28" s="80">
-        <v>337.32</v>
+        <v>321.29000000000002</v>
       </c>
       <c r="F28" s="81">
         <v>473460.02</v>
       </c>
       <c r="G28" s="81">
-        <v>1443729.6</v>
+        <v>1375121.2</v>
       </c>
       <c r="H28" s="57">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I28" s="57" t="s">
         <v>58</v>
       </c>
       <c r="J28" s="61">
-        <v>246.43824757133467</v>
+        <v>142.68666956018015</v>
       </c>
       <c r="K28" s="61">
-        <v>102788.07441828</v>
+        <v>95806.58433854999</v>
       </c>
       <c r="L28" s="57"/>
       <c r="M28" s="87">
-        <v>3.0661118511032249E-2</v>
+        <v>3.1858581834014556E-2</v>
       </c>
       <c r="N28" s="62"/>
       <c r="P28" s="57"/>
       <c r="Q28" s="57"/>
     </row>
-    <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="76" t="s">
-        <v>191</v>
+        <v>117</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D29" s="79">
-        <v>7000</v>
+        <v>6190</v>
       </c>
       <c r="E29" s="80">
-        <v>153.11000000000001</v>
+        <v>220.43</v>
       </c>
       <c r="F29" s="81">
-        <v>1142866.3999999999</v>
+        <v>1122479.74</v>
       </c>
       <c r="G29" s="81">
-        <v>1071770</v>
+        <v>1364461.7</v>
       </c>
       <c r="H29" s="57">
         <v>21</v>
       </c>
       <c r="I29" s="57" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="J29" s="61" t="s">
         <v>78</v>
       </c>
       <c r="K29" s="61">
-        <v>11303.06282814</v>
+        <v>30008.292117699995</v>
       </c>
       <c r="L29" s="57"/>
       <c r="M29" s="87">
-        <v>2.276164940205495E-2</v>
+        <v>3.1611624290883322E-2</v>
       </c>
       <c r="N29" s="62"/>
       <c r="P29" s="57"/>
       <c r="Q29" s="57"/>
     </row>
-    <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="76" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C30" s="76" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D30" s="79">
         <v>3370</v>
       </c>
       <c r="E30" s="80">
-        <v>272.25</v>
+        <v>261.24</v>
       </c>
       <c r="F30" s="81">
         <v>661957.46</v>
       </c>
       <c r="G30" s="81">
-        <v>917482.5</v>
+        <v>880378.8</v>
       </c>
       <c r="H30" s="57">
         <v>22</v>
@@ -8073,40 +8390,40 @@
         <v>28</v>
       </c>
       <c r="J30" s="61">
-        <v>128.09111693195092</v>
+        <v>113.27541803909561</v>
       </c>
       <c r="K30" s="61">
-        <v>41518.989380505001</v>
+        <v>40693.952097119996</v>
       </c>
       <c r="L30" s="57"/>
       <c r="M30" s="87">
-        <v>1.9484978117992557E-2</v>
+        <v>2.0396471267210146E-2</v>
       </c>
       <c r="N30" s="62"/>
       <c r="P30" s="57"/>
       <c r="Q30" s="57"/>
     </row>
-    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="76" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D31" s="79">
         <v>1580</v>
       </c>
       <c r="E31" s="80">
-        <v>500.12</v>
+        <v>475.37</v>
       </c>
       <c r="F31" s="81">
         <v>560812.69999999995</v>
       </c>
       <c r="G31" s="81">
-        <v>790189.6</v>
+        <v>751084.6</v>
       </c>
       <c r="H31" s="57">
         <v>23</v>
@@ -8115,43 +8432,43 @@
         <v>58</v>
       </c>
       <c r="J31" s="61">
-        <v>44.55394209918687</v>
+        <v>41.849073744012109</v>
       </c>
       <c r="K31" s="61">
-        <v>232145.61025336001</v>
+        <v>229700.01357027999</v>
       </c>
       <c r="L31" s="57"/>
       <c r="M31" s="87">
-        <v>1.6781602989773964E-2</v>
+        <v>1.7401004502998054E-2</v>
       </c>
       <c r="N31" s="62"/>
       <c r="P31" s="57"/>
       <c r="Q31" s="57"/>
     </row>
-    <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="76" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C32" s="76" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D32" s="79">
-        <v>3900</v>
+        <v>1040</v>
       </c>
       <c r="E32" s="80">
-        <v>169.89</v>
+        <v>279.22000000000003</v>
       </c>
       <c r="F32" s="81">
-        <v>715423.41</v>
+        <v>268526.96000000002</v>
       </c>
       <c r="G32" s="81">
-        <v>662571</v>
+        <v>290388.8</v>
       </c>
       <c r="H32" s="57">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I32" s="57" t="s">
         <v>58</v>
@@ -8160,163 +8477,163 @@
         <v>78</v>
       </c>
       <c r="K32" s="61">
-        <v>26863.448898510003</v>
+        <v>16365.447337830001</v>
       </c>
       <c r="L32" s="57"/>
       <c r="M32" s="87">
-        <v>1.4071310827853878E-2</v>
+        <v>6.7276799663049964E-3</v>
       </c>
       <c r="N32" s="62"/>
       <c r="P32" s="57"/>
       <c r="Q32" s="57"/>
     </row>
-    <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="76" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="B33" s="76" t="s">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="C33" s="76" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D33" s="79">
-        <v>3200</v>
+        <v>1580</v>
       </c>
       <c r="E33" s="80">
-        <v>92.85</v>
+        <v>82.96</v>
       </c>
       <c r="F33" s="81">
-        <v>216131.52</v>
+        <v>196718.19</v>
       </c>
       <c r="G33" s="81">
-        <v>297120</v>
+        <v>131076.79999999999</v>
       </c>
       <c r="H33" s="57">
         <v>26</v>
       </c>
       <c r="I33" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="J33" s="61">
-        <v>32.157505843806931</v>
+        <v>58</v>
+      </c>
+      <c r="J33" s="61" t="s">
+        <v>78</v>
       </c>
       <c r="K33" s="61">
-        <v>69456.675215950003</v>
+        <v>5619.9057519999997</v>
       </c>
       <c r="L33" s="57"/>
       <c r="M33" s="87">
-        <v>6.3100677107388401E-3</v>
+        <v>3.0367657478779027E-3</v>
       </c>
       <c r="N33" s="62"/>
       <c r="P33" s="57"/>
       <c r="Q33" s="57"/>
     </row>
-    <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="76" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="C34" s="76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D34" s="79">
-        <v>1040</v>
+        <v>650</v>
       </c>
       <c r="E34" s="80">
-        <v>249.96</v>
+        <v>176.7</v>
       </c>
       <c r="F34" s="81">
-        <v>268526.96000000002</v>
+        <v>84818.11</v>
       </c>
       <c r="G34" s="81">
-        <v>259958.39999999999</v>
+        <v>114855</v>
       </c>
       <c r="H34" s="57">
         <v>27</v>
       </c>
       <c r="I34" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="J34" s="61" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="J34" s="61">
+        <v>103.88975944491766</v>
       </c>
       <c r="K34" s="61">
-        <v>14066.97103884</v>
+        <v>20516.594794500001</v>
       </c>
       <c r="L34" s="57"/>
       <c r="M34" s="87">
-        <v>5.5208505182260757E-3</v>
+        <v>2.6609417530220189E-3</v>
       </c>
       <c r="N34" s="62"/>
       <c r="P34" s="57"/>
       <c r="Q34" s="57"/>
     </row>
-    <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="76" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="C35" s="76" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D35" s="79">
-        <v>1580</v>
+        <v>1100</v>
       </c>
       <c r="E35" s="80">
-        <v>121.79</v>
+        <v>93</v>
       </c>
       <c r="F35" s="81">
-        <v>196718.19</v>
+        <v>74295.210000000006</v>
       </c>
       <c r="G35" s="81">
-        <v>192428.2</v>
+        <v>102300</v>
       </c>
       <c r="H35" s="57">
         <v>28</v>
       </c>
       <c r="I35" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="J35" s="61" t="s">
-        <v>78</v>
+        <v>81</v>
+      </c>
+      <c r="J35" s="61">
+        <v>32.38307444688234</v>
       </c>
       <c r="K35" s="61">
-        <v>7369.6612678338006</v>
+        <v>73694.597150800008</v>
       </c>
       <c r="L35" s="57"/>
       <c r="M35" s="87">
-        <v>4.0866820525565289E-3</v>
+        <v>2.3700695775904618E-3</v>
       </c>
       <c r="N35" s="62"/>
       <c r="P35" s="57"/>
       <c r="Q35" s="57"/>
     </row>
-    <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="76" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="B36" s="76" t="s">
-        <v>117</v>
-      </c>
       <c r="C36" s="76" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D36" s="79">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E36" s="80">
-        <v>143.6</v>
+        <v>135.37</v>
       </c>
       <c r="F36" s="81">
-        <v>117272.8</v>
+        <v>35181.839999999997</v>
       </c>
       <c r="G36" s="81">
-        <v>143600</v>
+        <v>40611</v>
       </c>
       <c r="H36" s="57">
         <v>29</v>
@@ -8325,117 +8642,95 @@
         <v>81</v>
       </c>
       <c r="J36" s="61">
-        <v>30.356103903347094</v>
+        <v>33.589293005383283</v>
       </c>
       <c r="K36" s="61">
-        <v>40317.869084190002</v>
+        <v>39603.227657629999</v>
       </c>
       <c r="L36" s="57"/>
       <c r="M36" s="87">
-        <v>3.0496961606828804E-3</v>
+        <v>9.4086896984874144E-4</v>
       </c>
       <c r="N36" s="62"/>
       <c r="P36" s="57"/>
       <c r="Q36" s="57"/>
     </row>
-    <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="76" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B37" s="76" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="C37" s="76" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D37" s="79">
-        <v>650</v>
+        <v>145</v>
       </c>
       <c r="E37" s="80">
-        <v>207.79</v>
+        <v>235.77</v>
       </c>
       <c r="F37" s="81">
-        <v>84818.11</v>
+        <v>16229.86</v>
       </c>
       <c r="G37" s="81">
-        <v>135063.5</v>
+        <v>34186.65</v>
       </c>
       <c r="H37" s="57">
         <v>30</v>
       </c>
       <c r="I37" s="57" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="J37" s="61">
-        <v>47.72620425501939</v>
+        <v>35.862699210712847</v>
       </c>
       <c r="K37" s="61">
-        <v>23175.131307185002</v>
+        <v>1794511.855226543</v>
       </c>
       <c r="L37" s="57"/>
       <c r="M37" s="87">
-        <v>2.8684027673982746E-3</v>
+        <v>7.9203068548126072E-4</v>
       </c>
       <c r="N37" s="62"/>
       <c r="P37" s="57"/>
       <c r="Q37" s="57"/>
     </row>
-    <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="76" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="79">
-        <v>145</v>
-      </c>
-      <c r="E38" s="80">
-        <v>222.42</v>
-      </c>
-      <c r="F38" s="81">
-        <v>16229.86</v>
-      </c>
-      <c r="G38" s="81">
-        <v>32250.9</v>
-      </c>
-      <c r="H38" s="57">
-        <v>31</v>
-      </c>
-      <c r="I38" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="J38" s="61">
-        <v>34.802748851489234</v>
-      </c>
-      <c r="K38" s="61">
-        <v>1639682.5632768748</v>
-      </c>
+    <row r="38" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" s="84">
+        <v>155635</v>
+      </c>
+      <c r="E38" s="85"/>
+      <c r="F38" s="86">
+        <v>33760846.840000004</v>
+      </c>
+      <c r="G38" s="86">
+        <v>41017481</v>
+      </c>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
       <c r="L38" s="57"/>
-      <c r="M38" s="87">
-        <v>6.8492650354155652E-4</v>
-      </c>
+      <c r="M38" s="87"/>
       <c r="N38" s="62"/>
       <c r="P38" s="57"/>
       <c r="Q38" s="57"/>
     </row>
-    <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="D39" s="84">
-        <v>173835</v>
-      </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="86">
-        <v>33858251.18</v>
-      </c>
-      <c r="G39" s="86">
-        <v>45085599</v>
-      </c>
+    <row r="39" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
       <c r="H39" s="57"/>
       <c r="I39" s="57"/>
       <c r="J39" s="61"/>
@@ -8446,82 +8741,82 @@
       <c r="P39" s="57"/>
       <c r="Q39" s="57"/>
     </row>
-    <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="61"/>
-      <c r="K40" s="61"/>
+    <row r="40" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="D40" s="79">
+        <v>15800</v>
+      </c>
+      <c r="E40" s="80">
+        <v>107.06</v>
+      </c>
+      <c r="F40" s="81">
+        <v>675192.46</v>
+      </c>
+      <c r="G40" s="81">
+        <v>1691548</v>
+      </c>
+      <c r="H40" s="57">
+        <v>14</v>
+      </c>
+      <c r="I40" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K40" s="61">
+        <v>41953.099011190003</v>
+      </c>
       <c r="L40" s="57"/>
-      <c r="M40" s="87"/>
+      <c r="M40" s="87">
+        <v>3.9189505902580558E-2</v>
+      </c>
       <c r="N40" s="62"/>
       <c r="P40" s="57"/>
       <c r="Q40" s="57"/>
     </row>
-    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="76" t="s">
-        <v>137</v>
-      </c>
-      <c r="B41" s="76" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" s="79">
+    <row r="41" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="84">
         <v>15800</v>
       </c>
-      <c r="E41" s="80">
-        <v>85.72</v>
-      </c>
-      <c r="F41" s="81">
+      <c r="E41" s="85"/>
+      <c r="F41" s="86">
         <v>675192.46</v>
       </c>
-      <c r="G41" s="81">
-        <v>1354376</v>
-      </c>
-      <c r="H41" s="57">
-        <v>20</v>
-      </c>
-      <c r="I41" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="J41" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="K41" s="61">
-        <v>32850.040802049996</v>
-      </c>
+      <c r="G41" s="86">
+        <v>1691548</v>
+      </c>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
       <c r="L41" s="57"/>
-      <c r="M41" s="87">
-        <v>2.8763476931204995E-2</v>
-      </c>
+      <c r="M41" s="87"/>
       <c r="N41" s="62"/>
       <c r="P41" s="57"/>
       <c r="Q41" s="57"/>
     </row>
-    <row r="42" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="84">
-        <v>15800</v>
-      </c>
-      <c r="E42" s="85"/>
-      <c r="F42" s="86">
-        <v>675192.46</v>
-      </c>
-      <c r="G42" s="86">
-        <v>1354376</v>
-      </c>
+    <row r="42" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
       <c r="H42" s="57"/>
       <c r="I42" s="57"/>
       <c r="J42" s="61"/>
@@ -8532,75 +8827,79 @@
       <c r="P42" s="57"/>
       <c r="Q42" s="57"/>
     </row>
-    <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="76"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
+    <row r="43" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" s="79">
+        <v>461703.69</v>
+      </c>
+      <c r="E43" s="80">
+        <v>100</v>
+      </c>
+      <c r="F43" s="81">
+        <v>461703.69</v>
+      </c>
+      <c r="G43" s="139">
+        <v>454260.79</v>
+      </c>
+      <c r="H43" s="57">
+        <v>24</v>
+      </c>
+      <c r="I43" s="137" t="s">
+        <v>67</v>
+      </c>
       <c r="J43" s="61"/>
       <c r="K43" s="61"/>
       <c r="L43" s="57"/>
-      <c r="M43" s="87"/>
+      <c r="M43" s="87">
+        <v>1.0524239283198528E-2</v>
+      </c>
       <c r="N43" s="62"/>
       <c r="P43" s="57"/>
       <c r="Q43" s="57"/>
     </row>
-    <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="B44" s="76"/>
-      <c r="C44" s="76" t="s">
-        <v>196</v>
-      </c>
-      <c r="D44" s="79">
-        <v>646682.96</v>
-      </c>
-      <c r="E44" s="80">
-        <v>100</v>
-      </c>
-      <c r="F44" s="81">
-        <v>646682.96</v>
-      </c>
-      <c r="G44" s="81">
-        <v>646682.96</v>
-      </c>
-      <c r="H44" s="57">
-        <v>25</v>
-      </c>
-      <c r="I44" s="138" t="s">
-        <v>67</v>
-      </c>
+    <row r="44" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="83" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="84">
+        <v>461703.69</v>
+      </c>
+      <c r="E44" s="85"/>
+      <c r="F44" s="86">
+        <v>461703.69</v>
+      </c>
+      <c r="G44" s="86">
+        <v>461703.69</v>
+      </c>
+      <c r="H44" s="57"/>
+      <c r="I44" s="67"/>
       <c r="J44" s="61"/>
       <c r="K44" s="61"/>
       <c r="L44" s="57"/>
-      <c r="M44" s="87">
-        <v>1.3733889556344294E-2</v>
-      </c>
+      <c r="M44" s="87"/>
       <c r="N44" s="62"/>
       <c r="P44" s="57"/>
       <c r="Q44" s="57"/>
     </row>
-    <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="83" t="s">
-        <v>197</v>
-      </c>
-      <c r="D45" s="84">
-        <v>646682.96</v>
+        <v>68</v>
+      </c>
+      <c r="D45" s="88">
+        <v>633138.68999999994</v>
       </c>
       <c r="E45" s="85"/>
-      <c r="F45" s="86">
-        <v>646682.96</v>
-      </c>
-      <c r="G45" s="86">
-        <v>646682.96</v>
+      <c r="F45" s="89">
+        <v>34897742.990000002</v>
+      </c>
+      <c r="G45" s="140">
+        <v>43163289.789999999</v>
       </c>
       <c r="H45" s="57"/>
       <c r="I45" s="57"/>
@@ -8612,20 +8911,14 @@
       <c r="P45" s="57"/>
       <c r="Q45" s="57"/>
     </row>
-    <row r="46" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="88">
-        <v>836317.96</v>
-      </c>
-      <c r="E46" s="85"/>
-      <c r="F46" s="89">
-        <v>35180126.600000001</v>
-      </c>
-      <c r="G46" s="89">
-        <v>47086657.960000001</v>
-      </c>
+    <row r="46" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="90"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
       <c r="H46" s="57"/>
       <c r="I46" s="57"/>
       <c r="J46" s="61"/>
@@ -8636,14 +8929,20 @@
       <c r="P46" s="57"/>
       <c r="Q46" s="57"/>
     </row>
-    <row r="47" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="90"/>
-      <c r="B47" s="90"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="76"/>
-      <c r="G47" s="76"/>
+    <row r="47" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="88">
+        <v>633138.68999999994</v>
+      </c>
+      <c r="E47" s="85"/>
+      <c r="F47" s="89">
+        <v>34897742.990000002</v>
+      </c>
+      <c r="G47" s="140">
+        <v>43163289.789999999</v>
+      </c>
       <c r="H47" s="57"/>
       <c r="I47" s="57"/>
       <c r="J47" s="61"/>
@@ -8654,20 +8953,7 @@
       <c r="P47" s="57"/>
       <c r="Q47" s="57"/>
     </row>
-    <row r="48" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="D48" s="88">
-        <v>836317.96</v>
-      </c>
-      <c r="E48" s="85"/>
-      <c r="F48" s="89">
-        <v>35180126.600000001</v>
-      </c>
-      <c r="G48" s="89">
-        <v>47086657.960000001</v>
-      </c>
+    <row r="48" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H48" s="57"/>
       <c r="I48" s="57"/>
       <c r="J48" s="61"/>
@@ -8678,47 +8964,30 @@
       <c r="P48" s="57"/>
       <c r="Q48" s="57"/>
     </row>
-    <row r="49" spans="16:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="16:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P49" s="57"/>
       <c r="Q49" s="57"/>
     </row>
-    <row r="50" spans="16:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="16:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P50" s="57"/>
       <c r="Q50" s="57"/>
     </row>
-    <row r="51" spans="16:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="16:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P51" s="57"/>
       <c r="Q51" s="57"/>
     </row>
-    <row r="52" spans="16:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="16:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P52" s="57"/>
       <c r="Q52" s="57"/>
     </row>
-    <row r="65" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="14.4" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="12.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.5" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -8732,22 +9001,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7003DC-D047-4A41-98E0-A4C5C8E41DE2}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.109375" style="91"/>
+    <col min="2" max="3" width="9.140625" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="91" t="s">
         <v>46</v>
@@ -8756,10 +9025,10 @@
         <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>'INS Fact Sheet Backup'!I25</f>
         <v>2011</v>
@@ -8776,7 +9045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>'INS Fact Sheet Backup'!I26</f>
         <v>2012</v>
@@ -8793,7 +9062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>'INS Fact Sheet Backup'!I27</f>
         <v>2013</v>
@@ -8810,7 +9079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>'INS Fact Sheet Backup'!I28</f>
         <v>2014</v>
@@ -8827,7 +9096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>'INS Fact Sheet Backup'!I29</f>
         <v>2015</v>
@@ -8844,7 +9113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>'INS Fact Sheet Backup'!I30</f>
         <v>2016</v>
@@ -8861,7 +9130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>'INS Fact Sheet Backup'!I31</f>
         <v>2017</v>
@@ -8878,7 +9147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>'INS Fact Sheet Backup'!I32</f>
         <v>2018</v>
@@ -8895,7 +9164,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>'INS Fact Sheet Backup'!I33</f>
         <v>2019</v>
@@ -8912,21 +9181,38 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>'INS Fact Sheet Backup'!I34</f>
         <v>2020</v>
       </c>
       <c r="B11" s="91">
         <f>'INS Fact Sheet Backup'!J34*100</f>
-        <v>14.360000000000001</v>
+        <v>20.000011446925782</v>
       </c>
       <c r="C11" s="91">
         <f>'INS Fact Sheet Backup'!K34*100</f>
-        <v>18.398826898926828</v>
+        <v>13.991860226829544</v>
       </c>
       <c r="D11">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>'INS Fact Sheet Backup'!I35</f>
+        <v>2021 YTD</v>
+      </c>
+      <c r="B12" s="91">
+        <f>'INS Fact Sheet Backup'!J35*100</f>
+        <v>-6.99</v>
+      </c>
+      <c r="C12" s="91">
+        <f>'INS Fact Sheet Backup'!K35*100</f>
+        <v>6.1748728952811787</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -8938,22 +9224,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A573548-A86D-4CD4-ADD0-A24CB31A0191}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="92" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="91"/>
-    <col min="3" max="3" width="16.109375" style="91" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="92" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="91"/>
+    <col min="3" max="3" width="16.140625" style="91" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
@@ -8961,10 +9247,10 @@
         <v>46</v>
       </c>
       <c r="C1" s="91" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="92">
         <f>'INS Fact Sheet Backup'!A2</f>
         <v>40753</v>
@@ -8978,7 +9264,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="92">
         <f>'INS Fact Sheet Backup'!A3</f>
         <v>40786</v>
@@ -8992,7 +9278,7 @@
         <v>9456.7593166004899</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="92">
         <f>'INS Fact Sheet Backup'!A4</f>
         <v>40816</v>
@@ -9006,7 +9292,7 @@
         <v>8791.9838985829301</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="92">
         <f>'INS Fact Sheet Backup'!A5</f>
         <v>40847</v>
@@ -9020,7 +9306,7 @@
         <v>9752.8778550872466</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="92">
         <f>'INS Fact Sheet Backup'!A6</f>
         <v>40877</v>
@@ -9034,7 +9320,7 @@
         <v>9731.3394776146597</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="92">
         <f>'INS Fact Sheet Backup'!A7</f>
         <v>40908</v>
@@ -9048,7 +9334,7 @@
         <v>9830.8804779425154</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="92">
         <f>'INS Fact Sheet Backup'!A8</f>
         <v>40939</v>
@@ -9062,7 +9348,7 @@
         <v>10271.438198972714</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="92">
         <f>'INS Fact Sheet Backup'!A9</f>
         <v>40968</v>
@@ -9076,7 +9362,7 @@
         <v>10715.593238861971</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="92">
         <f>'INS Fact Sheet Backup'!A10</f>
         <v>40999</v>
@@ -9090,7 +9376,7 @@
         <v>11068.221558413172</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="92">
         <f>'INS Fact Sheet Backup'!A11</f>
         <v>41029</v>
@@ -9104,7 +9390,7 @@
         <v>10998.779643728825</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="92">
         <f>'INS Fact Sheet Backup'!A12</f>
         <v>41060</v>
@@ -9118,7 +9404,7 @@
         <v>10337.738151615606</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="92">
         <f>'INS Fact Sheet Backup'!A13</f>
         <v>41090</v>
@@ -9132,7 +9418,7 @@
         <v>10763.678918800771</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="92">
         <f>'INS Fact Sheet Backup'!A14</f>
         <v>41121</v>
@@ -9146,7 +9432,7 @@
         <v>10913.172562019598</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="92">
         <f>'INS Fact Sheet Backup'!A15</f>
         <v>41152</v>
@@ -9160,7 +9446,7 @@
         <v>11158.974172161306</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="92">
         <f>'INS Fact Sheet Backup'!A16</f>
         <v>41182</v>
@@ -9174,7 +9460,7 @@
         <v>11447.351644748825</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="92">
         <f>'INS Fact Sheet Backup'!A17</f>
         <v>41213</v>
@@ -9188,7 +9474,7 @@
         <v>11235.975010017852</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="92">
         <f>'INS Fact Sheet Backup'!A18</f>
         <v>41243</v>
@@ -9202,7 +9488,7 @@
         <v>11301.136570616736</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="92">
         <f>'INS Fact Sheet Backup'!A19</f>
         <v>41274</v>
@@ -9216,7 +9502,7 @@
         <v>11404.138282758369</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="92">
         <f>'INS Fact Sheet Backup'!A20</f>
         <v>41305</v>
@@ -9230,7 +9516,7 @@
         <v>11994.827146552037</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="92">
         <f>'INS Fact Sheet Backup'!A21</f>
         <v>41333</v>
@@ -9244,7 +9530,7 @@
         <v>12157.662744526613</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="92">
         <f>'INS Fact Sheet Backup'!A22</f>
         <v>41364</v>
@@ -9258,7 +9544,7 @@
         <v>12613.61152599177</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="92">
         <f>'INS Fact Sheet Backup'!A23</f>
         <v>41394</v>
@@ -9272,7 +9558,7 @@
         <v>12856.635459546102</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="92">
         <f>'INS Fact Sheet Backup'!A24</f>
         <v>41425</v>
@@ -9286,7 +9572,7 @@
         <v>13157.353101890643</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="92">
         <f>'INS Fact Sheet Backup'!A25</f>
         <v>41455</v>
@@ -9300,7 +9586,7 @@
         <v>12980.674656660962</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="92">
         <f>'INS Fact Sheet Backup'!A26</f>
         <v>41486</v>
@@ -9314,7 +9600,7 @@
         <v>13641.21525627482</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="92">
         <f>'INS Fact Sheet Backup'!A27</f>
         <v>41517</v>
@@ -9328,7 +9614,7 @@
         <v>13246.147681323089</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="92">
         <f>'INS Fact Sheet Backup'!A28</f>
         <v>41547</v>
@@ -9342,7 +9628,7 @@
         <v>13661.524170339881</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="92">
         <f>'INS Fact Sheet Backup'!A29</f>
         <v>41578</v>
@@ -9356,7 +9642,7 @@
         <v>14289.506757495177</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="92">
         <f>'INS Fact Sheet Backup'!A30</f>
         <v>41608</v>
@@ -9370,7 +9656,7 @@
         <v>14724.964482168229</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="92">
         <f>'INS Fact Sheet Backup'!A31</f>
         <v>41639</v>
@@ -9384,7 +9670,7 @@
         <v>15097.765108739213</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="92">
         <f>'INS Fact Sheet Backup'!A32</f>
         <v>41670</v>
@@ -9398,7 +9684,7 @@
         <v>14575.744053039965</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="92">
         <f>'INS Fact Sheet Backup'!A33</f>
         <v>41698</v>
@@ -9412,7 +9698,7 @@
         <v>15242.523041054976</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="92">
         <f>'INS Fact Sheet Backup'!A34</f>
         <v>41729</v>
@@ -9426,7 +9712,7 @@
         <v>15370.614913846495</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="92">
         <f>'INS Fact Sheet Backup'!A35</f>
         <v>41759</v>
@@ -9440,7 +9726,7 @@
         <v>15484.226439838261</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="92">
         <f>'INS Fact Sheet Backup'!A36</f>
         <v>41790</v>
@@ -9454,7 +9740,7 @@
         <v>15847.737787330158</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="92">
         <f>'INS Fact Sheet Backup'!A37</f>
         <v>41820</v>
@@ -9468,7 +9754,7 @@
         <v>16175.093803504431</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="92">
         <f>'INS Fact Sheet Backup'!A38</f>
         <v>41851</v>
@@ -9482,7 +9768,7 @@
         <v>15952.014498561077</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="92">
         <f>'INS Fact Sheet Backup'!A39</f>
         <v>41882</v>
@@ -9496,7 +9782,7 @@
         <v>16590.197078430665</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="92">
         <f>'INS Fact Sheet Backup'!A40</f>
         <v>41912</v>
@@ -9510,7 +9796,7 @@
         <v>16357.555280317663</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="92">
         <f>'INS Fact Sheet Backup'!A41</f>
         <v>41943</v>
@@ -9524,7 +9810,7 @@
         <v>16757.085352081896</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="92">
         <f>'INS Fact Sheet Backup'!A42</f>
         <v>41973</v>
@@ -9538,7 +9824,7 @@
         <v>17207.751994462869</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="92">
         <f>'INS Fact Sheet Backup'!A43</f>
         <v>42004</v>
@@ -9552,7 +9838,7 @@
         <v>17164.402025427135</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="92">
         <f>'INS Fact Sheet Backup'!A44</f>
         <v>42035</v>
@@ -9566,7 +9852,7 @@
         <v>16649.120250628403</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="92">
         <f>'INS Fact Sheet Backup'!A45</f>
         <v>42063</v>
@@ -9580,7 +9866,7 @@
         <v>17606.00706713782</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="92">
         <f>'INS Fact Sheet Backup'!A46</f>
         <v>42094</v>
@@ -9594,7 +9880,7 @@
         <v>17327.556373174029</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="92">
         <f>'INS Fact Sheet Backup'!A47</f>
         <v>42124</v>
@@ -9608,7 +9894,7 @@
         <v>17493.807147280619</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="92">
         <f>'INS Fact Sheet Backup'!A48</f>
         <v>42155</v>
@@ -9622,7 +9908,7 @@
         <v>17718.753415176143</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="92">
         <f>'INS Fact Sheet Backup'!A49</f>
         <v>42185</v>
@@ -9636,7 +9922,7 @@
         <v>17375.733124476352</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="92">
         <f>'INS Fact Sheet Backup'!A50</f>
         <v>42216</v>
@@ -9650,7 +9936,7 @@
         <v>17739.790900149372</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="92">
         <f>'INS Fact Sheet Backup'!A51</f>
         <v>42247</v>
@@ -9664,7 +9950,7 @@
         <v>16669.474700375227</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="92">
         <f>'INS Fact Sheet Backup'!A52</f>
         <v>42277</v>
@@ -9678,7 +9964,7 @@
         <v>16257.012494991088</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="92">
         <f>'INS Fact Sheet Backup'!A53</f>
         <v>42308</v>
@@ -9692,7 +9978,7 @@
         <v>17628.365086882091</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="92">
         <f>'INS Fact Sheet Backup'!A54</f>
         <v>42338</v>
@@ -9706,7 +9992,7 @@
         <v>17680.776656588114</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="92">
         <f>'INS Fact Sheet Backup'!A55</f>
         <v>42369</v>
@@ -9720,7 +10006,7 @@
         <v>17401.91614148848</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="92">
         <f>'INS Fact Sheet Backup'!A56</f>
         <v>42400</v>
@@ -9734,7 +10020,7 @@
         <v>16538.37747258753</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="92">
         <f>'INS Fact Sheet Backup'!A57</f>
         <v>42429</v>
@@ -9748,7 +10034,7 @@
         <v>16516.064988525017</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="92">
         <f>'INS Fact Sheet Backup'!A58</f>
         <v>42460</v>
@@ -9762,7 +10048,7 @@
         <v>17636.470438235414</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="92">
         <f>'INS Fact Sheet Backup'!A59</f>
         <v>42490</v>
@@ -9776,7 +10062,7 @@
         <v>17704.865032239279</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="92">
         <f>'INS Fact Sheet Backup'!A60</f>
         <v>42521</v>
@@ -9790,7 +10076,7 @@
         <v>18022.795162289185</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="92">
         <f>'INS Fact Sheet Backup'!A61</f>
         <v>42551</v>
@@ -9804,7 +10090,7 @@
         <v>18069.514771775182</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="92">
         <f>'INS Fact Sheet Backup'!A62</f>
         <v>42582</v>
@@ -9818,7 +10104,7 @@
         <v>18735.701795927307</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="92">
         <f>'INS Fact Sheet Backup'!A63</f>
         <v>42613</v>
@@ -9832,7 +10118,7 @@
         <v>18762.021419984714</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="92">
         <f>'INS Fact Sheet Backup'!A64</f>
         <v>42643</v>
@@ -9846,7 +10132,7 @@
         <v>18765.527667480255</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="92">
         <f>'INS Fact Sheet Backup'!A65</f>
         <v>42674</v>
@@ -9860,7 +10146,7 @@
         <v>18423.235947688623</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="92">
         <f>'INS Fact Sheet Backup'!A66</f>
         <v>42704</v>
@@ -9874,7 +10160,7 @@
         <v>19105.542603183869</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="92">
         <f>'INS Fact Sheet Backup'!A67</f>
         <v>42735</v>
@@ -9888,7 +10174,7 @@
         <v>19483.170012021437</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="92">
         <f>'INS Fact Sheet Backup'!A68</f>
         <v>42766</v>
@@ -9902,7 +10188,7 @@
         <v>19852.692069505683</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="92">
         <f>'INS Fact Sheet Backup'!A69</f>
         <v>42794</v>
@@ -9916,7 +10202,7 @@
         <v>20641.005792138742</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="92">
         <f>'INS Fact Sheet Backup'!A70</f>
         <v>42825</v>
@@ -9930,7 +10216,7 @@
         <v>20665.048632108141</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="92" t="str">
         <f>'INS Fact Sheet Backup'!A71</f>
         <v>04/30/2017</v>
@@ -9944,7 +10230,7 @@
         <v>20877.290444792558</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="92" t="str">
         <f>'INS Fact Sheet Backup'!A72</f>
         <v>05/31/2017</v>
@@ -9958,7 +10244,7 @@
         <v>21171.086663509548</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="92" t="str">
         <f>'INS Fact Sheet Backup'!A73</f>
         <v>06/30/2017</v>
@@ -9972,7 +10258,7 @@
         <v>21303.231211977727</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="92">
         <f>'INS Fact Sheet Backup'!A74</f>
         <v>42947</v>
@@ -9986,7 +10272,7 @@
         <v>21741.28447051112</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="92">
         <f>'INS Fact Sheet Backup'!A75</f>
         <v>42978</v>
@@ -10000,7 +10286,7 @@
         <v>21807.857637244575</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="92">
         <f>'INS Fact Sheet Backup'!A76</f>
         <v>43008</v>
@@ -10014,7 +10300,7 @@
         <v>22257.704637353861</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="92">
         <f>'INS Fact Sheet Backup'!A77</f>
         <v>43039</v>
@@ -10028,7 +10314,7 @@
         <v>22777.084623511011</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="92">
         <f>'INS Fact Sheet Backup'!A78</f>
         <v>43069</v>
@@ -10042,7 +10328,7 @@
         <v>23475.647517394656</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="92">
         <f>'INS Fact Sheet Backup'!A79</f>
         <v>43100</v>
@@ -10056,7 +10342,7 @@
         <v>23736.658045244283</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="92">
         <f>'INS Fact Sheet Backup'!A80</f>
         <v>43131</v>
@@ -10070,7 +10356,7 @@
         <v>25095.67046737827</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="92">
         <f>'INS Fact Sheet Backup'!A81</f>
         <v>43159</v>
@@ -10084,7 +10370,7 @@
         <v>24170.749699464533</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="92">
         <f>'INS Fact Sheet Backup'!A82</f>
         <v>43190</v>
@@ -10098,7 +10384,7 @@
         <v>23556.473352519064</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="92">
         <f>'INS Fact Sheet Backup'!A83</f>
         <v>43220</v>
@@ -10112,7 +10398,7 @@
         <v>23646.861680813116</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="92">
         <f>'INS Fact Sheet Backup'!A84</f>
         <v>43251</v>
@@ -10126,7 +10412,7 @@
         <v>24216.330916906521</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="92">
         <f>'INS Fact Sheet Backup'!A85</f>
         <v>43281</v>
@@ -10140,7 +10426,7 @@
         <v>24365.369203307746</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="92">
         <f>'INS Fact Sheet Backup'!A86</f>
         <v>43312</v>
@@ -10154,7 +10440,7 @@
         <v>25272.121234199152</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="92">
         <f>'INS Fact Sheet Backup'!A87</f>
         <v>43343</v>
@@ -10168,7 +10454,7 @@
         <v>26095.588503151106</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="92">
         <f>'INS Fact Sheet Backup'!A88</f>
         <v>43373</v>
@@ -10182,7 +10468,7 @@
         <v>26244.125897052967</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="92">
         <f>'INS Fact Sheet Backup'!A89</f>
         <v>43404</v>
@@ -10196,7 +10482,7 @@
         <v>24450.33878547233</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="92">
         <f>'INS Fact Sheet Backup'!A90</f>
         <v>43434</v>
@@ -10210,7 +10496,7 @@
         <v>24948.590215292741</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="92">
         <f>'INS Fact Sheet Backup'!A91</f>
         <v>43465</v>
@@ -10224,7 +10510,7 @@
         <v>22695.985574296054</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="92">
         <f>'INS Fact Sheet Backup'!A92</f>
         <v>43496</v>
@@ -10238,7 +10524,7 @@
         <v>24514.726239481293</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="92">
         <f>'INS Fact Sheet Backup'!A93</f>
         <v>43524</v>
@@ -10252,7 +10538,7 @@
         <v>25301.856034388584</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="92">
         <f>'INS Fact Sheet Backup'!A94</f>
         <v>43555</v>
@@ -10266,7 +10552,7 @@
         <v>25793.50479035376</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="92">
         <f>'INS Fact Sheet Backup'!A95</f>
         <v>43585</v>
@@ -10280,7 +10566,7 @@
         <v>26837.865651524575</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="92">
         <f>'INS Fact Sheet Backup'!A96</f>
         <v>43616</v>
@@ -10294,7 +10580,7 @@
         <v>25132.372226877018</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="92">
         <f>'INS Fact Sheet Backup'!A97</f>
         <v>43646</v>
@@ -10308,7 +10594,7 @@
         <v>26903.61917598634</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="92">
         <f>'INS Fact Sheet Backup'!A98</f>
         <v>43677</v>
@@ -10322,7 +10608,7 @@
         <v>27290.308185494188</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="92">
         <f>'INS Fact Sheet Backup'!A99</f>
         <v>43708</v>
@@ -10336,7 +10622,7 @@
         <v>26857.992422862586</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="92">
         <f>'INS Fact Sheet Backup'!A100</f>
         <v>43738</v>
@@ -10350,7 +10636,7 @@
         <v>27360.524206768459</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="92">
         <f>'INS Fact Sheet Backup'!A101</f>
         <v>43769</v>
@@ -10364,7 +10650,7 @@
         <v>27953.125569196054</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="92">
         <f>'INS Fact Sheet Backup'!A102</f>
         <v>43799</v>
@@ -10378,7 +10664,7 @@
         <v>28967.797165859207</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="92">
         <f>'INS Fact Sheet Backup'!A103</f>
         <v>43830</v>
@@ -10392,7 +10678,7 @@
         <v>29842.127791337327</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="92">
         <f>'INS Fact Sheet Backup'!A104</f>
         <v>43861</v>
@@ -10406,7 +10692,7 @@
         <v>29830.42512112495</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="92">
         <f>'INS Fact Sheet Backup'!A105</f>
         <v>43890</v>
@@ -10420,7 +10706,7 @@
         <v>27374.822410841167</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="92">
         <f>'INS Fact Sheet Backup'!A106</f>
         <v>43921</v>
@@ -10434,7 +10720,7 @@
         <v>23993.661433099005</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="92">
         <f>'INS Fact Sheet Backup'!A107</f>
         <v>43951</v>
@@ -10448,7 +10734,7 @@
         <v>27069.505664638844</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="92">
         <f>'INS Fact Sheet Backup'!A108</f>
         <v>43982</v>
@@ -10462,7 +10748,7 @@
         <v>28358.757422316165</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="92">
         <f>'INS Fact Sheet Backup'!A109</f>
         <v>44012</v>
@@ -10476,7 +10762,7 @@
         <v>28922.762376598337</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="92">
         <f>'INS Fact Sheet Backup'!A110</f>
         <v>44043</v>
@@ -10490,7 +10776,7 @@
         <v>30553.57728315912</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="92">
         <f>'INS Fact Sheet Backup'!A111</f>
         <v>44074</v>
@@ -10504,7 +10790,7 @@
         <v>32749.763214454881</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="92">
         <f>'INS Fact Sheet Backup'!A112</f>
         <v>44104</v>
@@ -10518,7 +10804,7 @@
         <v>31505.364103311389</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="92">
         <f>'INS Fact Sheet Backup'!A113</f>
         <v>44135</v>
@@ -10532,7 +10818,7 @@
         <v>30667.553094604966</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="92">
         <f>'INS Fact Sheet Backup'!A114</f>
         <v>44165</v>
@@ -10546,7 +10832,7 @@
         <v>34024.534625332446</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="92">
         <f>'INS Fact Sheet Backup'!A115</f>
         <v>44196</v>
@@ -10558,6 +10844,48 @@
       <c r="C115" s="91">
         <f>'INS Fact Sheet Backup'!E115</f>
         <v>35332.729226622017</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="92">
+        <f>'INS Fact Sheet Backup'!A116</f>
+        <v>44227</v>
+      </c>
+      <c r="B116" s="91">
+        <f>'INS Fact Sheet Backup'!B116</f>
+        <v>27050</v>
+      </c>
+      <c r="C116" s="91">
+        <f>'INS Fact Sheet Backup'!E116</f>
+        <v>34976.002695712399</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="92">
+        <f>'INS Fact Sheet Backup'!A117</f>
+        <v>44255</v>
+      </c>
+      <c r="B117" s="91">
+        <f>'INS Fact Sheet Backup'!B117</f>
+        <v>26841</v>
+      </c>
+      <c r="C117" s="91">
+        <f>'INS Fact Sheet Backup'!E117</f>
+        <v>35940.448435394013</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="92">
+        <f>'INS Fact Sheet Backup'!A118</f>
+        <v>44286</v>
+      </c>
+      <c r="B118" s="91">
+        <f>'INS Fact Sheet Backup'!B118</f>
+        <v>25018</v>
+      </c>
+      <c r="C118" s="91">
+        <f>'INS Fact Sheet Backup'!E118</f>
+        <v>37514.480346799792</v>
       </c>
     </row>
   </sheetData>
@@ -10568,20 +10896,22 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357BC826-7018-481F-A751-7EBC4F96E49E}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.109375" style="91"/>
-    <col min="6" max="6" width="15.6640625" style="91" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.140625" style="91"/>
+    <col min="6" max="6" width="15.7109375" style="91" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'INS Fact Sheet Backup'!I18</f>
         <v>Share Class/Benchmark</v>
@@ -10607,120 +10937,120 @@
         <v>Since Inception*</v>
       </c>
       <c r="G1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'INS Fact Sheet Backup'!I19</f>
         <v>Class A</v>
       </c>
       <c r="B2" s="91">
         <f>'INS Fact Sheet Backup'!J19</f>
-        <v>14.36</v>
+        <v>-6.99</v>
       </c>
       <c r="C2" s="91">
         <f>'INS Fact Sheet Backup'!K19</f>
-        <v>14.36</v>
+        <v>36.130000000000003</v>
       </c>
       <c r="D2" s="91">
         <f>'INS Fact Sheet Backup'!L19</f>
-        <v>11.223474472541861</v>
+        <v>6.0661301253508437</v>
       </c>
       <c r="E2" s="91">
         <f>'INS Fact Sheet Backup'!M19</f>
-        <v>10.839954361697224</v>
+        <v>10.067323024725884</v>
       </c>
       <c r="F2" s="91">
         <f>'INS Fact Sheet Backup'!N19</f>
-        <v>11.069967905639233</v>
+        <v>9.9421439962364531</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'INS Fact Sheet Backup'!I20</f>
         <v>Class C</v>
       </c>
       <c r="B3" s="91">
         <f>'INS Fact Sheet Backup'!J20</f>
-        <v>13.51</v>
+        <v>-7.13</v>
       </c>
       <c r="C3" s="91">
         <f>'INS Fact Sheet Backup'!K20</f>
-        <v>13.51</v>
+        <v>35.08</v>
       </c>
       <c r="D3" s="91">
         <f>'INS Fact Sheet Backup'!L20</f>
-        <v>10.4</v>
+        <v>5.28</v>
       </c>
       <c r="E3" s="91">
         <f>'INS Fact Sheet Backup'!M20</f>
-        <v>10.012</v>
+        <v>9.26</v>
       </c>
       <c r="F3" s="91">
         <f>'INS Fact Sheet Backup'!N20</f>
-        <v>10.52</v>
+        <v>9.39</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'INS Fact Sheet Backup'!I21</f>
         <v>S&amp;P 500 TR</v>
       </c>
       <c r="B4" s="91">
         <f>'INS Fact Sheet Backup'!J21</f>
-        <v>18.398826898926828</v>
+        <v>6.1748728952811787</v>
       </c>
       <c r="C4" s="91">
         <f>'INS Fact Sheet Backup'!K21</f>
-        <v>18.398826898926828</v>
+        <v>56.351628330676363</v>
       </c>
       <c r="D4" s="91">
         <f>'INS Fact Sheet Backup'!L21</f>
-        <v>14.178904188562003</v>
+        <v>16.778498637956616</v>
       </c>
       <c r="E4" s="91">
         <f>'INS Fact Sheet Backup'!M21</f>
-        <v>15.216856682869984</v>
+        <v>16.294038412866541</v>
       </c>
       <c r="F4" s="91">
         <f>'INS Fact Sheet Backup'!N21</f>
-        <v>14.33</v>
+        <v>14.64</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'INS Fact Sheet Backup'!I22</f>
         <v>Class A w/ Sales Charge</v>
       </c>
       <c r="B5" s="91">
         <f>'INS Fact Sheet Backup'!J22</f>
-        <v>7.79</v>
+        <v>-12.34</v>
       </c>
       <c r="C5" s="91">
         <f>'INS Fact Sheet Backup'!K22</f>
-        <v>7.79</v>
+        <v>28.31</v>
       </c>
       <c r="D5" s="91">
         <f>'INS Fact Sheet Backup'!L22</f>
-        <v>9.0500000000000007</v>
+        <v>3.99</v>
       </c>
       <c r="E5" s="91">
         <f>'INS Fact Sheet Backup'!M22</f>
-        <v>9.5299999999999994</v>
+        <v>8.77</v>
       </c>
       <c r="F5" s="91">
         <f>'INS Fact Sheet Backup'!N22</f>
-        <v>10.37</v>
+        <v>9.27</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -10734,23 +11064,23 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7E246F9-D72E-4DF7-AC3A-DD274B58BB11}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" style="91"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="91"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="91" t="s">
         <v>46</v>
@@ -10759,33 +11089,33 @@
         <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'INS Fact Sheet Backup'!I6</f>
         <v>Cumulative Return</v>
       </c>
       <c r="B2" s="91">
         <f>'INS Fact Sheet Backup'!J6*100</f>
-        <v>168.99</v>
+        <v>150.18</v>
       </c>
       <c r="C2" s="91">
         <f>'INS Fact Sheet Backup'!K6*100</f>
-        <v>253.32729226622018</v>
+        <v>275.14480346799792</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B3" s="91">
         <f>'INS Fact Sheet Backup'!J7</f>
-        <v>-3.4163229738656931</v>
+        <v>-4.5102924465962522</v>
       </c>
       <c r="C3" s="91" t="str">
         <f>'INS Fact Sheet Backup'!K7</f>
@@ -10795,13 +11125,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B4" s="91">
         <f>'INS Fact Sheet Backup'!J8</f>
-        <v>1.0108966971932756</v>
+        <v>0.98691979928105267</v>
       </c>
       <c r="C4" s="91" t="str">
         <f>'INS Fact Sheet Backup'!K8</f>
@@ -10811,13 +11141,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B5" s="91">
         <f>'INS Fact Sheet Backup'!J9</f>
-        <v>0.79581852495666117</v>
+        <v>0.74543222823942878</v>
       </c>
       <c r="C5" s="91" t="str">
         <f>'INS Fact Sheet Backup'!K9</f>
@@ -10827,17 +11157,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B6" s="91">
         <f>'INS Fact Sheet Backup'!J10</f>
-        <v>0.69578892346252175</v>
+        <v>0.62783175769390054</v>
       </c>
       <c r="C6" s="91">
         <f>'INS Fact Sheet Backup'!K10</f>
-        <v>1.0313701338572061</v>
+        <v>1.0668467032572257</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -10851,72 +11181,74 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767F85B8-E83B-45DB-B55D-45A9C05EDDA2}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="93"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="93" t="s">
-        <v>91</v>
-      </c>
       <c r="C1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'INS Portfolio'!D4</f>
-        <v>Mastercard Inc</v>
+        <v>Facebook Inc</v>
       </c>
       <c r="B2" s="93">
         <f>'INS Portfolio'!E4*100</f>
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'INS Portfolio'!D5</f>
-        <v>Visa Inc</v>
+        <v>SolarEdge Technologies Inc</v>
       </c>
       <c r="B3" s="93">
         <f>'INS Portfolio'!E5*100</f>
-        <v>7.3</v>
+        <v>5.3</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'INS Portfolio'!D6</f>
-        <v>Crowdstrike Holdings Inc</v>
+        <v>Alphabet Inc</v>
       </c>
       <c r="B4" s="93">
         <f>'INS Portfolio'!E6*100</f>
-        <v>4.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'INS Portfolio'!D7</f>
-        <v>SolarEdge Technologies Inc</v>
+        <v>Amazon.com Inc</v>
       </c>
       <c r="B5" s="93">
         <f>'INS Portfolio'!E7*100</f>
@@ -10926,23 +11258,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'INS Portfolio'!D8</f>
-        <v>RingCentral Inc</v>
+        <v>Netflix Inc</v>
       </c>
       <c r="B6" s="93">
         <f>'INS Portfolio'!E8*100</f>
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'INS Portfolio'!D9</f>
-        <v>Peloton Interactive Inc</v>
+        <v>DocuSign Inc</v>
       </c>
       <c r="B7" s="93">
         <f>'INS Portfolio'!E9*100</f>
@@ -10952,10 +11284,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>'INS Portfolio'!D10</f>
-        <v>DocuSign Inc</v>
+        <v>Mastercard Inc</v>
       </c>
       <c r="B8" s="93">
         <f>'INS Portfolio'!E10*100</f>
@@ -10965,10 +11297,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>'INS Portfolio'!D11</f>
-        <v>Amazon.com Inc</v>
+        <v>Square Inc</v>
       </c>
       <c r="B9" s="93">
         <f>'INS Portfolio'!E11*100</f>
@@ -10978,7 +11310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>'INS Portfolio'!D12</f>
         <v>ServiceNow Inc</v>
@@ -10991,14 +11323,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>'INS Portfolio'!D13</f>
-        <v>Square Inc</v>
+        <v>Crowdstrike Holdings Inc</v>
       </c>
       <c r="B11" s="93">
         <f>'INS Portfolio'!E13*100</f>
-        <v>4.5999999999999996</v>
+        <v>4.5</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -11012,102 +11344,104 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444AAEEE-6FE9-4E35-9121-8E97718AC490}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="93"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="93" t="s">
-        <v>91</v>
-      </c>
       <c r="C1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'INS Portfolio'!D16</f>
         <v>Information Technology</v>
       </c>
       <c r="B2" s="93">
         <f>'INS Portfolio'!E16*100</f>
-        <v>57.000687164504797</v>
+        <v>45.832881011269194</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'INS Portfolio'!D17</f>
-        <v>Consumer Discretionary</v>
+        <v>Communication Services</v>
       </c>
       <c r="B3" s="93">
         <f>'INS Portfolio'!E17*100</f>
-        <v>13.284376872348322</v>
+        <v>27.201260161407177</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'INS Portfolio'!D18</f>
-        <v>Communication Services</v>
+        <v>Consumer Discretionary</v>
       </c>
       <c r="B4" s="93">
         <f>'INS Portfolio'!E18*100</f>
-        <v>12.616773534971859</v>
+        <v>12.383800275664763</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'INS Portfolio'!D19</f>
-        <v>Health Care</v>
+        <v>Financials</v>
       </c>
       <c r="B5" s="93">
         <f>'INS Portfolio'!E19*100</f>
-        <v>8.0041707423824153</v>
+        <v>7.7424163363336627</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'INS Portfolio'!D20</f>
-        <v>Financials</v>
+        <v>Health Care</v>
       </c>
       <c r="B6" s="93">
         <f>'INS Portfolio'!E20*100</f>
-        <v>7.7206027301581717</v>
+        <v>5.7872182870053663</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'INS Portfolio'!D21</f>
         <v>Cash</v>
       </c>
       <c r="B7" s="93">
         <f>'INS Portfolio'!E21*100</f>
-        <v>1.3733889556344294</v>
+        <v>1.0524239283198529</v>
       </c>
       <c r="C7">
         <v>6</v>
